--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_6.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/Nextcloud/project-vwl4makro/09_Forschung/Drittmittel/DZ2022/WP1_Meta_monetary/HIWI_MP/Full text download/packages_for_full_text_download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A39E48-A33A-CD45-9792-26276FD51B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E54AC1-6FBC-B948-9A5F-51BEE096738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="910">
   <si>
     <t>record_id</t>
   </si>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>biblio_edit</t>
-  </si>
-  <si>
-    <t>Extract IRF, Christian</t>
   </si>
   <si>
     <t>CFFQU77D</t>
@@ -1742,9 +1739,6 @@
   </si>
   <si>
     <t>https://doi.org/10.1016/j.jjie.2006.02.001</t>
-  </si>
-  <si>
-    <t>Extract IRF, Aleksandr</t>
   </si>
   <si>
     <t>LHRKVT24</t>
@@ -3370,8 +3364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AH101" sqref="AH101"/>
+    <sheetView tabSelected="1" topLeftCell="R77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AF78" sqref="AF78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3477,7 +3471,7 @@
         <v>32</v>
       </c>
       <c r="AH1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
@@ -3846,9 +3840,7 @@
       <c r="Y6" t="s">
         <v>48</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF6" s="1"/>
       <c r="AG6">
         <v>1</v>
       </c>
@@ -3861,38 +3853,38 @@
         <v>10159</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" t="s">
-        <v>91</v>
       </c>
       <c r="E7">
         <v>2022</v>
       </c>
       <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>93</v>
-      </c>
-      <c r="H7" t="s">
-        <v>94</v>
       </c>
       <c r="I7" t="s">
         <v>39</v>
       </c>
       <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
         <v>95</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>96</v>
       </c>
-      <c r="M7" t="s">
-        <v>97</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -3906,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S7" s="2">
         <v>45111</v>
@@ -3921,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
         <v>48</v>
@@ -3932,41 +3924,41 @@
         <v>6955</v>
       </c>
       <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="E8">
         <v>2022</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I8" t="s">
         <v>39</v>
       </c>
       <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
         <v>104</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>105</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="M8" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -3980,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="S8" s="2">
         <v>45111</v>
@@ -3992,13 +3984,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
         <v>48</v>
@@ -4009,19 +4001,19 @@
         <v>4960</v>
       </c>
       <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>110</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
       </c>
       <c r="E9">
         <v>2008</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3">
         <v>276</v>
@@ -4033,28 +4025,28 @@
         <v>39</v>
       </c>
       <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>114</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>115</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>116</v>
       </c>
       <c r="S9" s="2">
         <v>45139</v>
@@ -4086,32 +4078,32 @@
         <v>8075</v>
       </c>
       <c r="B10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>118</v>
-      </c>
-      <c r="D10" t="s">
-        <v>119</v>
       </c>
       <c r="E10">
         <v>2008</v>
       </c>
       <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
         <v>120</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>121</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>122</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>123</v>
       </c>
-      <c r="M10" t="s">
-        <v>124</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -4125,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S10" s="2">
         <v>45111</v>
@@ -4140,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
         <v>48</v>
@@ -4151,55 +4143,55 @@
         <v>889</v>
       </c>
       <c r="B11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>127</v>
-      </c>
-      <c r="D11" t="s">
-        <v>128</v>
       </c>
       <c r="E11">
         <v>2010</v>
       </c>
       <c r="F11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
         <v>129</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>130</v>
-      </c>
-      <c r="H11" t="s">
-        <v>131</v>
       </c>
       <c r="I11" t="s">
         <v>39</v>
       </c>
       <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
         <v>132</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>133</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>134</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>135</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>136</v>
       </c>
       <c r="S11" s="2">
         <v>45111</v>
@@ -4216,9 +4208,7 @@
       <c r="Y11" t="s">
         <v>48</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF11" s="1"/>
       <c r="AG11">
         <v>1</v>
       </c>
@@ -4231,52 +4221,52 @@
         <v>4671</v>
       </c>
       <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
         <v>137</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>139</v>
       </c>
       <c r="E12">
         <v>1993</v>
       </c>
       <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
         <v>140</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>141</v>
-      </c>
-      <c r="H12" t="s">
-        <v>142</v>
       </c>
       <c r="I12" t="s">
         <v>39</v>
       </c>
       <c r="J12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
         <v>143</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>144</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>145</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>146</v>
       </c>
       <c r="S12" s="2">
         <v>45111</v>
@@ -4291,7 +4281,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Y12" t="s">
         <v>48</v>
@@ -4302,19 +4292,19 @@
         <v>10145</v>
       </c>
       <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" t="s">
         <v>147</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>148</v>
-      </c>
-      <c r="D13" t="s">
-        <v>149</v>
       </c>
       <c r="E13">
         <v>2017</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -4326,25 +4316,25 @@
         <v>39</v>
       </c>
       <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="s">
         <v>151</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
         <v>152</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13" t="s">
-        <v>153</v>
       </c>
       <c r="S13" s="2">
         <v>45111</v>
@@ -4373,43 +4363,43 @@
         <v>2355</v>
       </c>
       <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
         <v>154</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>156</v>
       </c>
       <c r="E14">
         <v>2021</v>
       </c>
       <c r="I14" t="s">
+        <v>156</v>
+      </c>
+      <c r="J14" t="s">
         <v>157</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>158</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>159</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>160</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>161</v>
       </c>
       <c r="S14" s="2">
         <v>45111</v>
@@ -4424,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
         <v>48</v>
@@ -4433,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="AE14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -4441,46 +4431,46 @@
         <v>8533</v>
       </c>
       <c r="B15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C15" t="s">
         <v>164</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>165</v>
-      </c>
-      <c r="D15" t="s">
-        <v>166</v>
       </c>
       <c r="E15">
         <v>2016</v>
       </c>
       <c r="I15" t="s">
+        <v>166</v>
+      </c>
+      <c r="J15" t="s">
         <v>167</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>168</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>169</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>170</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>171</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>172</v>
       </c>
       <c r="S15" s="2">
         <v>45111</v>
@@ -4497,9 +4487,7 @@
       <c r="Y15" t="s">
         <v>48</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF15" s="1"/>
       <c r="AG15">
         <v>1</v>
       </c>
@@ -4512,43 +4500,43 @@
         <v>7155</v>
       </c>
       <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
         <v>173</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>174</v>
-      </c>
-      <c r="D16" t="s">
-        <v>175</v>
       </c>
       <c r="E16">
         <v>2021</v>
       </c>
       <c r="F16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I16" t="s">
         <v>39</v>
       </c>
       <c r="J16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M16" t="s">
         <v>177</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>178</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>179</v>
       </c>
       <c r="S16" s="2">
         <v>45111</v>
@@ -4566,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y16" t="s">
         <v>48</v>
@@ -4577,41 +4565,41 @@
         <v>6983</v>
       </c>
       <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
         <v>180</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>181</v>
-      </c>
-      <c r="D17" t="s">
-        <v>182</v>
       </c>
       <c r="E17">
         <v>2020</v>
       </c>
       <c r="F17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G17" t="s">
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I17" t="s">
         <v>39</v>
       </c>
       <c r="J17" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" t="s">
         <v>185</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>186</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>187</v>
       </c>
-      <c r="M17" t="s">
-        <v>188</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -4625,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="S17" s="2">
         <v>45111</v>
@@ -4640,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y17" t="s">
         <v>48</v>
@@ -4651,55 +4639,55 @@
         <v>7624</v>
       </c>
       <c r="B18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" t="s">
         <v>189</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>190</v>
-      </c>
-      <c r="D18" t="s">
-        <v>191</v>
       </c>
       <c r="E18">
         <v>2015</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I18" t="s">
         <v>39</v>
       </c>
       <c r="J18" t="s">
+        <v>192</v>
+      </c>
+      <c r="K18" t="s">
         <v>193</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>194</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>195</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>196</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>197</v>
       </c>
       <c r="S18" s="2">
         <v>45111</v>
@@ -4720,10 +4708,10 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF18" t="s">
         <v>198</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>199</v>
       </c>
       <c r="AG18">
         <v>1</v>
@@ -4737,43 +4725,43 @@
         <v>7596</v>
       </c>
       <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>201</v>
-      </c>
-      <c r="D19" t="s">
-        <v>202</v>
       </c>
       <c r="E19">
         <v>2019</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="L19" t="s">
         <v>203</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>204</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
         <v>205</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19" t="s">
-        <v>206</v>
       </c>
       <c r="S19" s="2">
         <v>45111</v>
@@ -4805,52 +4793,52 @@
         <v>5750</v>
       </c>
       <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" t="s">
         <v>207</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>208</v>
-      </c>
-      <c r="D20" t="s">
-        <v>209</v>
       </c>
       <c r="E20">
         <v>2005</v>
       </c>
       <c r="F20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
         <v>210</v>
-      </c>
-      <c r="G20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" t="s">
-        <v>211</v>
       </c>
       <c r="I20" t="s">
         <v>39</v>
       </c>
       <c r="J20" t="s">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s">
         <v>212</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>213</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
         <v>214</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>215</v>
       </c>
       <c r="S20" s="2">
         <v>45111</v>
@@ -4865,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Y20" t="s">
         <v>48</v>
@@ -4876,41 +4864,41 @@
         <v>7198</v>
       </c>
       <c r="B21" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" t="s">
         <v>217</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>218</v>
-      </c>
-      <c r="D21" t="s">
-        <v>219</v>
       </c>
       <c r="E21">
         <v>2013</v>
       </c>
       <c r="F21" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" t="s">
         <v>220</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>221</v>
-      </c>
-      <c r="H21" t="s">
-        <v>222</v>
       </c>
       <c r="I21" t="s">
         <v>39</v>
       </c>
       <c r="J21" t="s">
+        <v>222</v>
+      </c>
+      <c r="K21" t="s">
         <v>223</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>224</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>225</v>
       </c>
-      <c r="M21" t="s">
-        <v>226</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -4924,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S21" s="2">
         <v>45111</v>
@@ -4936,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y21" t="s">
         <v>48</v>
@@ -4953,19 +4941,19 @@
         <v>7063</v>
       </c>
       <c r="B22" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" t="s">
         <v>227</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>228</v>
-      </c>
-      <c r="D22" t="s">
-        <v>229</v>
       </c>
       <c r="E22">
         <v>2022</v>
       </c>
       <c r="F22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G22" t="s">
         <v>63</v>
@@ -4977,31 +4965,31 @@
         <v>39</v>
       </c>
       <c r="J22" t="s">
+        <v>230</v>
+      </c>
+      <c r="K22" t="s">
         <v>231</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>232</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>233</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
         <v>234</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>235</v>
       </c>
       <c r="S22" s="2">
         <v>45111</v>
@@ -5016,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="Y22" t="s">
         <v>48</v>
@@ -5027,19 +5015,19 @@
         <v>4447</v>
       </c>
       <c r="B23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C23" t="s">
         <v>237</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>238</v>
-      </c>
-      <c r="D23" t="s">
-        <v>239</v>
       </c>
       <c r="E23">
         <v>2022</v>
       </c>
       <c r="F23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -5051,28 +5039,28 @@
         <v>39</v>
       </c>
       <c r="J23" t="s">
+        <v>240</v>
+      </c>
+      <c r="L23" t="s">
         <v>241</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>242</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
         <v>243</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23" t="s">
-        <v>244</v>
       </c>
       <c r="S23" s="2">
         <v>45111</v>
@@ -5090,7 +5078,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y23" t="s">
         <v>48</v>
@@ -5101,55 +5089,55 @@
         <v>8821</v>
       </c>
       <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="C24" t="s">
         <v>246</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>247</v>
-      </c>
-      <c r="D24" t="s">
-        <v>248</v>
       </c>
       <c r="E24">
         <v>2007</v>
       </c>
       <c r="F24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
         <v>37</v>
       </c>
       <c r="H24" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I24" t="s">
         <v>39</v>
       </c>
       <c r="J24" t="s">
+        <v>250</v>
+      </c>
+      <c r="K24" t="s">
         <v>251</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>252</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>253</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
         <v>254</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>255</v>
       </c>
       <c r="S24" s="2">
         <v>45111</v>
@@ -5161,13 +5149,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="s">
+        <v>255</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24" t="s">
         <v>256</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24" t="s">
-        <v>257</v>
       </c>
       <c r="Y24" t="s">
         <v>48</v>
@@ -5178,55 +5166,55 @@
         <v>8650</v>
       </c>
       <c r="B25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" t="s">
         <v>258</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>259</v>
-      </c>
-      <c r="D25" t="s">
-        <v>260</v>
       </c>
       <c r="E25">
         <v>2017</v>
       </c>
       <c r="F25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I25" t="s">
         <v>39</v>
       </c>
       <c r="J25" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" t="s">
         <v>262</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>263</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>264</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
         <v>265</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>266</v>
       </c>
       <c r="S25" s="2">
         <v>45111</v>
@@ -5255,52 +5243,52 @@
         <v>1202</v>
       </c>
       <c r="B26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C26" t="s">
         <v>267</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>268</v>
-      </c>
-      <c r="D26" t="s">
-        <v>269</v>
       </c>
       <c r="E26">
         <v>2022</v>
       </c>
       <c r="F26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
       </c>
       <c r="H26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
         <v>39</v>
       </c>
       <c r="J26" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" t="s">
         <v>272</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>273</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
         <v>274</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>275</v>
       </c>
       <c r="S26" s="2">
         <v>45111</v>
@@ -5315,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
         <v>48</v>
@@ -5326,52 +5314,52 @@
         <v>9082</v>
       </c>
       <c r="B27" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" t="s">
         <v>277</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>278</v>
-      </c>
-      <c r="D27" t="s">
-        <v>279</v>
       </c>
       <c r="E27">
         <v>2020</v>
       </c>
       <c r="F27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I27" t="s">
         <v>39</v>
       </c>
       <c r="J27" t="s">
+        <v>281</v>
+      </c>
+      <c r="K27" t="s">
         <v>282</v>
       </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
         <v>283</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" t="s">
         <v>284</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27" t="s">
-        <v>285</v>
       </c>
       <c r="S27" s="2">
         <v>45111</v>
@@ -5386,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Y27" t="s">
         <v>48</v>
@@ -5397,52 +5385,52 @@
         <v>6440</v>
       </c>
       <c r="B28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" t="s">
         <v>286</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>287</v>
-      </c>
-      <c r="D28" t="s">
-        <v>288</v>
       </c>
       <c r="E28">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
+        <v>288</v>
+      </c>
+      <c r="H28" t="s">
         <v>289</v>
-      </c>
-      <c r="H28" t="s">
-        <v>290</v>
       </c>
       <c r="I28" t="s">
         <v>39</v>
       </c>
       <c r="J28" t="s">
+        <v>290</v>
+      </c>
+      <c r="K28" t="s">
         <v>291</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>292</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>293</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>294</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>295</v>
       </c>
       <c r="S28" s="2">
         <v>45111</v>
@@ -5471,19 +5459,19 @@
         <v>6771</v>
       </c>
       <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
         <v>296</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>297</v>
-      </c>
-      <c r="D29" t="s">
-        <v>298</v>
       </c>
       <c r="E29">
         <v>2012</v>
       </c>
       <c r="F29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -5495,25 +5483,25 @@
         <v>39</v>
       </c>
       <c r="J29" t="s">
+        <v>299</v>
+      </c>
+      <c r="M29" t="s">
         <v>300</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29" t="s">
         <v>301</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29" t="s">
-        <v>302</v>
       </c>
       <c r="S29" s="2">
         <v>45111</v>
@@ -5531,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Y29" t="s">
         <v>48</v>
@@ -5542,19 +5530,19 @@
         <v>6864</v>
       </c>
       <c r="B30" t="s">
+        <v>303</v>
+      </c>
+      <c r="C30" t="s">
         <v>304</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>305</v>
-      </c>
-      <c r="D30" t="s">
-        <v>306</v>
       </c>
       <c r="E30">
         <v>2016</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -5563,28 +5551,28 @@
         <v>78</v>
       </c>
       <c r="I30" t="s">
+        <v>307</v>
+      </c>
+      <c r="L30" t="s">
         <v>308</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>309</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
         <v>310</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30" t="s">
-        <v>311</v>
       </c>
       <c r="S30" s="2">
         <v>45111</v>
@@ -5608,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF30" t="s">
         <v>69</v>
@@ -5625,19 +5613,19 @@
         <v>6439</v>
       </c>
       <c r="B31" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" t="s">
         <v>313</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>314</v>
-      </c>
-      <c r="D31" t="s">
-        <v>315</v>
       </c>
       <c r="E31">
         <v>2012</v>
       </c>
       <c r="F31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -5649,31 +5637,31 @@
         <v>39</v>
       </c>
       <c r="J31" t="s">
+        <v>316</v>
+      </c>
+      <c r="K31" t="s">
         <v>317</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>318</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>319</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" t="s">
         <v>320</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" t="s">
-        <v>321</v>
       </c>
       <c r="S31" s="2">
         <v>45111</v>
@@ -5691,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Y31" t="s">
         <v>48</v>
@@ -5702,52 +5690,52 @@
         <v>3753</v>
       </c>
       <c r="B32" t="s">
+        <v>322</v>
+      </c>
+      <c r="C32" t="s">
         <v>323</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>324</v>
-      </c>
-      <c r="D32" t="s">
-        <v>325</v>
       </c>
       <c r="E32">
         <v>2004</v>
       </c>
       <c r="F32" t="s">
+        <v>325</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
         <v>326</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>327</v>
       </c>
       <c r="I32" t="s">
         <v>39</v>
       </c>
       <c r="J32" t="s">
+        <v>327</v>
+      </c>
+      <c r="L32" t="s">
         <v>328</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>329</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" t="s">
         <v>330</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32" t="s">
-        <v>331</v>
       </c>
       <c r="S32" s="2">
         <v>45111</v>
@@ -5765,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
         <v>48</v>
@@ -5776,55 +5764,55 @@
         <v>8540</v>
       </c>
       <c r="B33" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" t="s">
         <v>333</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>334</v>
-      </c>
-      <c r="D33" t="s">
-        <v>335</v>
       </c>
       <c r="E33">
         <v>2023</v>
       </c>
       <c r="F33" t="s">
+        <v>335</v>
+      </c>
+      <c r="G33" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" t="s">
         <v>336</v>
-      </c>
-      <c r="G33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H33" t="s">
-        <v>337</v>
       </c>
       <c r="I33" t="s">
         <v>39</v>
       </c>
       <c r="J33" t="s">
+        <v>337</v>
+      </c>
+      <c r="K33" t="s">
         <v>338</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>339</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>340</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
         <v>341</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>342</v>
       </c>
       <c r="S33" s="2">
         <v>45111</v>
@@ -5839,7 +5827,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y33" t="s">
         <v>48</v>
@@ -5850,55 +5838,55 @@
         <v>9032</v>
       </c>
       <c r="B34" t="s">
+        <v>343</v>
+      </c>
+      <c r="C34" t="s">
         <v>344</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>345</v>
-      </c>
-      <c r="D34" t="s">
-        <v>346</v>
       </c>
       <c r="E34">
         <v>2020</v>
       </c>
       <c r="F34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I34" t="s">
         <v>39</v>
       </c>
       <c r="J34" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" t="s">
         <v>348</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>349</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>350</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" t="s">
         <v>351</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34" t="s">
-        <v>352</v>
       </c>
       <c r="S34" s="2">
         <v>45111</v>
@@ -5913,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Y34" t="s">
         <v>48</v>
@@ -5924,49 +5912,49 @@
         <v>2593</v>
       </c>
       <c r="B35" t="s">
+        <v>353</v>
+      </c>
+      <c r="C35" t="s">
         <v>354</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>355</v>
-      </c>
-      <c r="D35" t="s">
-        <v>356</v>
       </c>
       <c r="E35">
         <v>2019</v>
       </c>
       <c r="F35" t="s">
+        <v>356</v>
+      </c>
+      <c r="H35" t="s">
         <v>357</v>
-      </c>
-      <c r="H35" t="s">
-        <v>358</v>
       </c>
       <c r="I35" t="s">
         <v>39</v>
       </c>
       <c r="J35" t="s">
+        <v>358</v>
+      </c>
+      <c r="L35" t="s">
         <v>359</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>360</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35" t="s">
         <v>361</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35" t="s">
-        <v>362</v>
       </c>
       <c r="S35" s="2">
         <v>45111</v>
@@ -5978,13 +5966,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y35" t="s">
         <v>48</v>
@@ -5995,55 +5983,55 @@
         <v>9668</v>
       </c>
       <c r="B36" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" t="s">
         <v>363</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>364</v>
-      </c>
-      <c r="D36" t="s">
-        <v>365</v>
       </c>
       <c r="E36">
         <v>2000</v>
       </c>
       <c r="F36" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
         <v>63</v>
       </c>
       <c r="H36" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I36" t="s">
         <v>39</v>
       </c>
       <c r="J36" t="s">
+        <v>367</v>
+      </c>
+      <c r="K36" t="s">
         <v>368</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>369</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>370</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
         <v>371</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>372</v>
       </c>
       <c r="S36" s="2">
         <v>45111</v>
@@ -6060,9 +6048,7 @@
       <c r="Y36" t="s">
         <v>48</v>
       </c>
-      <c r="AF36" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF36" s="1"/>
       <c r="AG36">
         <v>1</v>
       </c>
@@ -6075,52 +6061,52 @@
         <v>7941</v>
       </c>
       <c r="B37" t="s">
+        <v>372</v>
+      </c>
+      <c r="C37" t="s">
         <v>373</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>374</v>
-      </c>
-      <c r="D37" t="s">
-        <v>375</v>
       </c>
       <c r="E37">
         <v>2021</v>
       </c>
       <c r="F37" t="s">
+        <v>375</v>
+      </c>
+      <c r="H37" t="s">
         <v>376</v>
-      </c>
-      <c r="H37" t="s">
-        <v>377</v>
       </c>
       <c r="I37" t="s">
         <v>39</v>
       </c>
       <c r="J37" t="s">
+        <v>377</v>
+      </c>
+      <c r="K37" t="s">
         <v>378</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>379</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>380</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
         <v>381</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>382</v>
       </c>
       <c r="S37" s="2">
         <v>45111</v>
@@ -6152,46 +6138,46 @@
         <v>9417</v>
       </c>
       <c r="B38" t="s">
+        <v>382</v>
+      </c>
+      <c r="C38" t="s">
         <v>383</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>384</v>
-      </c>
-      <c r="D38" t="s">
-        <v>385</v>
       </c>
       <c r="E38">
         <v>2006</v>
       </c>
       <c r="I38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J38" t="s">
+        <v>385</v>
+      </c>
+      <c r="K38" t="s">
         <v>386</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>387</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>388</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
         <v>389</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38" t="s">
-        <v>390</v>
       </c>
       <c r="S38" s="2">
         <v>45139</v>
@@ -6209,7 +6195,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y38" t="s">
         <v>48</v>
@@ -6220,29 +6206,29 @@
         <v>7073</v>
       </c>
       <c r="B39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C39" t="s">
         <v>392</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>393</v>
-      </c>
-      <c r="D39" t="s">
-        <v>394</v>
       </c>
       <c r="E39">
         <v>2013</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39" t="s">
+        <v>394</v>
+      </c>
+      <c r="L39" t="s">
         <v>395</v>
       </c>
-      <c r="L39" t="s">
+      <c r="M39" t="s">
         <v>396</v>
       </c>
-      <c r="M39" t="s">
-        <v>397</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
@@ -6256,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S39" s="2">
         <v>45111</v>
@@ -6271,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s">
         <v>48</v>
@@ -6282,38 +6268,38 @@
         <v>9211</v>
       </c>
       <c r="B40" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40" t="s">
         <v>399</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>400</v>
-      </c>
-      <c r="D40" t="s">
-        <v>401</v>
       </c>
       <c r="E40">
         <v>2002</v>
       </c>
       <c r="F40" t="s">
+        <v>401</v>
+      </c>
+      <c r="G40" t="s">
+        <v>289</v>
+      </c>
+      <c r="H40" t="s">
         <v>402</v>
-      </c>
-      <c r="G40" t="s">
-        <v>290</v>
-      </c>
-      <c r="H40" t="s">
-        <v>403</v>
       </c>
       <c r="I40" t="s">
         <v>39</v>
       </c>
       <c r="J40" t="s">
+        <v>403</v>
+      </c>
+      <c r="L40" t="s">
         <v>404</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>405</v>
       </c>
-      <c r="M40" t="s">
-        <v>406</v>
-      </c>
       <c r="N40">
         <v>1</v>
       </c>
@@ -6327,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="S40" s="2">
         <v>45111</v>
@@ -6342,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y40" t="s">
         <v>48</v>
@@ -6353,29 +6339,29 @@
         <v>8241</v>
       </c>
       <c r="B41" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" t="s">
         <v>407</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>408</v>
-      </c>
-      <c r="D41" t="s">
-        <v>409</v>
       </c>
       <c r="E41">
         <v>2018</v>
       </c>
       <c r="I41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J41" t="s">
+        <v>409</v>
+      </c>
+      <c r="L41" t="s">
         <v>410</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>411</v>
       </c>
-      <c r="M41" t="s">
-        <v>412</v>
-      </c>
       <c r="N41">
         <v>0</v>
       </c>
@@ -6389,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="S41" s="2">
         <v>45111</v>
@@ -6404,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y41" t="s">
         <v>48</v>
@@ -6415,41 +6401,41 @@
         <v>7945</v>
       </c>
       <c r="B42" t="s">
+        <v>412</v>
+      </c>
+      <c r="C42" t="s">
         <v>413</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>414</v>
-      </c>
-      <c r="D42" t="s">
-        <v>415</v>
       </c>
       <c r="E42">
         <v>2020</v>
       </c>
       <c r="F42" t="s">
+        <v>415</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" t="s">
         <v>416</v>
-      </c>
-      <c r="G42" t="s">
-        <v>103</v>
-      </c>
-      <c r="H42" t="s">
-        <v>417</v>
       </c>
       <c r="I42" t="s">
         <v>39</v>
       </c>
       <c r="J42" t="s">
+        <v>417</v>
+      </c>
+      <c r="K42" t="s">
         <v>418</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>419</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="s">
         <v>420</v>
       </c>
-      <c r="M42" t="s">
-        <v>421</v>
-      </c>
       <c r="N42">
         <v>1</v>
       </c>
@@ -6463,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S42" s="2">
         <v>45111</v>
@@ -6478,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y42" t="s">
         <v>48</v>
@@ -6489,19 +6475,19 @@
         <v>7452</v>
       </c>
       <c r="B43" t="s">
+        <v>421</v>
+      </c>
+      <c r="C43" t="s">
         <v>422</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>423</v>
-      </c>
-      <c r="D43" t="s">
-        <v>424</v>
       </c>
       <c r="E43">
         <v>2017</v>
       </c>
       <c r="F43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G43" t="s">
         <v>63</v>
@@ -6513,28 +6499,28 @@
         <v>39</v>
       </c>
       <c r="J43" t="s">
+        <v>425</v>
+      </c>
+      <c r="L43" t="s">
         <v>426</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="s">
         <v>427</v>
       </c>
-      <c r="M43" t="s">
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
         <v>428</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43" t="s">
-        <v>429</v>
       </c>
       <c r="S43" s="2">
         <v>45111</v>
@@ -6560,28 +6546,28 @@
         <v>1048</v>
       </c>
       <c r="B44" t="s">
+        <v>429</v>
+      </c>
+      <c r="C44" t="s">
         <v>430</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>431</v>
-      </c>
-      <c r="D44" t="s">
-        <v>432</v>
       </c>
       <c r="E44">
         <v>2011</v>
       </c>
       <c r="I44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J44" t="s">
+        <v>432</v>
+      </c>
+      <c r="L44" t="s">
         <v>433</v>
       </c>
-      <c r="L44" t="s">
+      <c r="M44" t="s">
         <v>434</v>
-      </c>
-      <c r="M44" t="s">
-        <v>435</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -6619,43 +6605,43 @@
         <v>5001</v>
       </c>
       <c r="B45" t="s">
+        <v>435</v>
+      </c>
+      <c r="C45" t="s">
         <v>436</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>437</v>
-      </c>
-      <c r="D45" t="s">
-        <v>438</v>
       </c>
       <c r="E45">
         <v>2007</v>
       </c>
       <c r="I45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J45" t="s">
+        <v>438</v>
+      </c>
+      <c r="L45" t="s">
         <v>439</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>440</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
         <v>441</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45" t="s">
-        <v>442</v>
       </c>
       <c r="S45" s="2">
         <v>45111</v>
@@ -6676,7 +6662,7 @@
         <v>1</v>
       </c>
       <c r="AE45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AF45" t="s">
         <v>69</v>
@@ -6693,41 +6679,41 @@
         <v>10374</v>
       </c>
       <c r="B46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" t="s">
         <v>444</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>445</v>
-      </c>
-      <c r="D46" t="s">
-        <v>446</v>
       </c>
       <c r="E46">
         <v>2015</v>
       </c>
       <c r="F46" t="s">
+        <v>446</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
         <v>447</v>
-      </c>
-      <c r="G46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H46" t="s">
-        <v>448</v>
       </c>
       <c r="I46" t="s">
         <v>39</v>
       </c>
       <c r="J46" t="s">
+        <v>448</v>
+      </c>
+      <c r="K46" t="s">
         <v>449</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>450</v>
       </c>
-      <c r="L46" t="s">
+      <c r="M46" t="s">
         <v>451</v>
       </c>
-      <c r="M46" t="s">
-        <v>452</v>
-      </c>
       <c r="N46">
         <v>1</v>
       </c>
@@ -6741,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S46" s="2">
         <v>45111</v>
@@ -6756,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Y46" t="s">
         <v>48</v>
@@ -6767,22 +6753,22 @@
         <v>7046</v>
       </c>
       <c r="B47" t="s">
+        <v>452</v>
+      </c>
+      <c r="C47" t="s">
         <v>453</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>454</v>
-      </c>
-      <c r="D47" t="s">
-        <v>455</v>
       </c>
       <c r="E47">
         <v>2016</v>
       </c>
       <c r="F47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
         <v>63</v>
@@ -6791,14 +6777,14 @@
         <v>39</v>
       </c>
       <c r="J47" t="s">
+        <v>456</v>
+      </c>
+      <c r="L47" t="s">
         <v>457</v>
       </c>
-      <c r="L47" t="s">
+      <c r="M47" t="s">
         <v>458</v>
       </c>
-      <c r="M47" t="s">
-        <v>459</v>
-      </c>
       <c r="N47">
         <v>1</v>
       </c>
@@ -6812,7 +6798,7 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="S47" s="2">
         <v>45111</v>
@@ -6827,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y47" t="s">
         <v>48</v>
@@ -6838,37 +6824,37 @@
         <v>4250</v>
       </c>
       <c r="B48" t="s">
+        <v>460</v>
+      </c>
+      <c r="C48" t="s">
         <v>461</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>462</v>
-      </c>
-      <c r="D48" t="s">
-        <v>463</v>
       </c>
       <c r="E48">
         <v>2002</v>
       </c>
       <c r="F48" t="s">
+        <v>463</v>
+      </c>
+      <c r="G48" t="s">
+        <v>102</v>
+      </c>
+      <c r="H48" t="s">
         <v>464</v>
-      </c>
-      <c r="G48" t="s">
-        <v>103</v>
-      </c>
-      <c r="H48" t="s">
-        <v>465</v>
       </c>
       <c r="I48" t="s">
         <v>39</v>
       </c>
       <c r="J48" t="s">
+        <v>465</v>
+      </c>
+      <c r="L48" t="s">
         <v>466</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>467</v>
-      </c>
-      <c r="M48" t="s">
-        <v>468</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -6906,52 +6892,52 @@
         <v>10629</v>
       </c>
       <c r="B49" t="s">
+        <v>468</v>
+      </c>
+      <c r="C49" t="s">
         <v>469</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>470</v>
-      </c>
-      <c r="D49" t="s">
-        <v>471</v>
       </c>
       <c r="E49">
         <v>2013</v>
       </c>
       <c r="F49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I49" t="s">
         <v>39</v>
       </c>
       <c r="J49" t="s">
+        <v>472</v>
+      </c>
+      <c r="K49" t="s">
         <v>473</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>474</v>
       </c>
-      <c r="L49" t="s">
+      <c r="M49" t="s">
         <v>475</v>
       </c>
-      <c r="M49" t="s">
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" t="s">
         <v>476</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" t="s">
-        <v>477</v>
       </c>
       <c r="S49" s="2">
         <v>45111</v>
@@ -6963,13 +6949,13 @@
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y49" t="s">
         <v>48</v>
@@ -6980,19 +6966,19 @@
         <v>10303</v>
       </c>
       <c r="B50" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" t="s">
         <v>479</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>480</v>
-      </c>
-      <c r="D50" t="s">
-        <v>481</v>
       </c>
       <c r="E50">
         <v>2014</v>
       </c>
       <c r="F50" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -7004,28 +6990,28 @@
         <v>39</v>
       </c>
       <c r="J50" t="s">
+        <v>482</v>
+      </c>
+      <c r="L50" t="s">
         <v>483</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>484</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50" t="s">
         <v>485</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50" t="s">
-        <v>486</v>
       </c>
       <c r="S50" s="2">
         <v>45111</v>
@@ -7040,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Y50" t="s">
         <v>48</v>
@@ -7051,41 +7037,41 @@
         <v>9190</v>
       </c>
       <c r="B51" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" t="s">
         <v>488</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>489</v>
-      </c>
-      <c r="D51" t="s">
-        <v>490</v>
       </c>
       <c r="E51">
         <v>2016</v>
       </c>
       <c r="F51" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I51" t="s">
         <v>39</v>
       </c>
       <c r="J51" t="s">
+        <v>491</v>
+      </c>
+      <c r="K51" t="s">
         <v>492</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>493</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>494</v>
       </c>
-      <c r="M51" t="s">
-        <v>495</v>
-      </c>
       <c r="N51">
         <v>1</v>
       </c>
@@ -7099,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S51" s="2">
         <v>45113</v>
@@ -7114,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Y51" t="s">
         <v>48</v>
@@ -7125,40 +7111,40 @@
         <v>7910</v>
       </c>
       <c r="B52" t="s">
+        <v>495</v>
+      </c>
+      <c r="C52" t="s">
         <v>496</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>497</v>
-      </c>
-      <c r="D52" t="s">
-        <v>498</v>
       </c>
       <c r="E52">
         <v>2010</v>
       </c>
       <c r="I52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J52" t="s">
+        <v>498</v>
+      </c>
+      <c r="M52" t="s">
         <v>499</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52" t="s">
         <v>500</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52" t="s">
-        <v>501</v>
       </c>
       <c r="S52" s="2">
         <v>45113</v>
@@ -7178,9 +7164,7 @@
       <c r="Y52" t="s">
         <v>48</v>
       </c>
-      <c r="AF52" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="AF52" s="1"/>
       <c r="AG52">
         <v>1</v>
       </c>
@@ -7193,31 +7177,31 @@
         <v>6545</v>
       </c>
       <c r="B53" t="s">
+        <v>501</v>
+      </c>
+      <c r="C53" t="s">
         <v>502</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>503</v>
-      </c>
-      <c r="D53" t="s">
-        <v>504</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
+        <v>504</v>
+      </c>
+      <c r="I53" t="s">
+        <v>120</v>
+      </c>
+      <c r="J53" t="s">
         <v>505</v>
       </c>
-      <c r="I53" t="s">
-        <v>121</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
         <v>506</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>507</v>
-      </c>
-      <c r="M53" t="s">
-        <v>508</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -7255,55 +7239,55 @@
         <v>10187</v>
       </c>
       <c r="B54" t="s">
+        <v>508</v>
+      </c>
+      <c r="C54" t="s">
         <v>509</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>510</v>
-      </c>
-      <c r="D54" t="s">
-        <v>511</v>
       </c>
       <c r="E54">
         <v>1997</v>
       </c>
       <c r="F54" t="s">
+        <v>511</v>
+      </c>
+      <c r="G54" t="s">
+        <v>102</v>
+      </c>
+      <c r="H54" t="s">
         <v>512</v>
-      </c>
-      <c r="G54" t="s">
-        <v>103</v>
-      </c>
-      <c r="H54" t="s">
-        <v>513</v>
       </c>
       <c r="I54" t="s">
         <v>39</v>
       </c>
       <c r="J54" t="s">
+        <v>513</v>
+      </c>
+      <c r="K54" t="s">
         <v>514</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>515</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>516</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
         <v>517</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>518</v>
       </c>
       <c r="S54" s="2">
         <v>45113</v>
@@ -7318,7 +7302,7 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="Y54" t="s">
         <v>48</v>
@@ -7327,7 +7311,7 @@
         <v>1</v>
       </c>
       <c r="AE54" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.2">
@@ -7335,55 +7319,55 @@
         <v>9600</v>
       </c>
       <c r="B55" t="s">
+        <v>520</v>
+      </c>
+      <c r="C55" t="s">
         <v>521</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>522</v>
-      </c>
-      <c r="D55" t="s">
-        <v>523</v>
       </c>
       <c r="E55">
         <v>2006</v>
       </c>
       <c r="F55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I55" t="s">
         <v>39</v>
       </c>
       <c r="J55" t="s">
+        <v>524</v>
+      </c>
+      <c r="K55" t="s">
         <v>525</v>
       </c>
-      <c r="K55" t="s">
+      <c r="L55" t="s">
         <v>526</v>
       </c>
-      <c r="L55" t="s">
+      <c r="M55" t="s">
         <v>527</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55" t="s">
         <v>528</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="R55" t="s">
-        <v>529</v>
       </c>
       <c r="S55" s="2">
         <v>45113</v>
@@ -7400,9 +7384,7 @@
       <c r="Y55" t="s">
         <v>48</v>
       </c>
-      <c r="AF55" s="1" t="s">
-        <v>530</v>
-      </c>
+      <c r="AF55" s="1"/>
       <c r="AG55">
         <v>1</v>
       </c>
@@ -7415,19 +7397,19 @@
         <v>6875</v>
       </c>
       <c r="B56" t="s">
+        <v>529</v>
+      </c>
+      <c r="C56" t="s">
+        <v>530</v>
+      </c>
+      <c r="D56" t="s">
         <v>531</v>
-      </c>
-      <c r="C56" t="s">
-        <v>532</v>
-      </c>
-      <c r="D56" t="s">
-        <v>533</v>
       </c>
       <c r="E56">
         <v>2022</v>
       </c>
       <c r="F56" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -7439,28 +7421,28 @@
         <v>39</v>
       </c>
       <c r="J56" t="s">
+        <v>533</v>
+      </c>
+      <c r="L56" t="s">
+        <v>534</v>
+      </c>
+      <c r="M56" t="s">
         <v>535</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56" t="s">
         <v>536</v>
-      </c>
-      <c r="M56" t="s">
-        <v>537</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56" t="s">
-        <v>538</v>
       </c>
       <c r="S56" s="2">
         <v>45145</v>
@@ -7478,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y56" t="s">
         <v>48</v>
@@ -7489,52 +7471,52 @@
         <v>3724</v>
       </c>
       <c r="B57" t="s">
+        <v>538</v>
+      </c>
+      <c r="C57" t="s">
+        <v>539</v>
+      </c>
+      <c r="D57" t="s">
         <v>540</v>
-      </c>
-      <c r="C57" t="s">
-        <v>541</v>
-      </c>
-      <c r="D57" t="s">
-        <v>542</v>
       </c>
       <c r="E57">
         <v>2015</v>
       </c>
       <c r="F57" t="s">
+        <v>541</v>
+      </c>
+      <c r="G57" t="s">
+        <v>542</v>
+      </c>
+      <c r="H57" t="s">
         <v>543</v>
-      </c>
-      <c r="G57" t="s">
-        <v>544</v>
-      </c>
-      <c r="H57" t="s">
-        <v>545</v>
       </c>
       <c r="I57" t="s">
         <v>39</v>
       </c>
       <c r="J57" t="s">
+        <v>544</v>
+      </c>
+      <c r="L57" t="s">
+        <v>545</v>
+      </c>
+      <c r="M57" t="s">
         <v>546</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
         <v>547</v>
-      </c>
-      <c r="M57" t="s">
-        <v>548</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>549</v>
       </c>
       <c r="S57" s="2">
         <v>45113</v>
@@ -7546,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W57">
         <v>1</v>
@@ -7555,7 +7537,7 @@
         <v>48</v>
       </c>
       <c r="AF57" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AG57">
         <v>1</v>
@@ -7569,52 +7551,52 @@
         <v>1013</v>
       </c>
       <c r="B58" t="s">
+        <v>549</v>
+      </c>
+      <c r="C58" t="s">
+        <v>550</v>
+      </c>
+      <c r="D58" t="s">
         <v>551</v>
-      </c>
-      <c r="C58" t="s">
-        <v>552</v>
-      </c>
-      <c r="D58" t="s">
-        <v>553</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G58" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="H58" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
       </c>
       <c r="J58" t="s">
+        <v>552</v>
+      </c>
+      <c r="L58" t="s">
+        <v>553</v>
+      </c>
+      <c r="M58" t="s">
         <v>554</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
         <v>555</v>
-      </c>
-      <c r="M58" t="s">
-        <v>556</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="R58" t="s">
-        <v>557</v>
       </c>
       <c r="S58" s="2">
         <v>45113</v>
@@ -7629,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y58" t="s">
         <v>48</v>
@@ -7640,31 +7622,31 @@
         <v>6380</v>
       </c>
       <c r="B59" t="s">
+        <v>556</v>
+      </c>
+      <c r="C59" t="s">
+        <v>557</v>
+      </c>
+      <c r="D59" t="s">
         <v>558</v>
-      </c>
-      <c r="C59" t="s">
-        <v>559</v>
-      </c>
-      <c r="D59" t="s">
-        <v>560</v>
       </c>
       <c r="E59">
         <v>2009</v>
       </c>
       <c r="F59" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I59" t="s">
         <v>39</v>
       </c>
       <c r="J59" t="s">
+        <v>560</v>
+      </c>
+      <c r="L59" t="s">
+        <v>561</v>
+      </c>
+      <c r="M59" t="s">
         <v>562</v>
-      </c>
-      <c r="L59" t="s">
-        <v>563</v>
-      </c>
-      <c r="M59" t="s">
-        <v>564</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -7691,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Y59" t="s">
         <v>48</v>
@@ -7702,52 +7684,52 @@
         <v>1091</v>
       </c>
       <c r="B60" t="s">
+        <v>564</v>
+      </c>
+      <c r="C60" t="s">
+        <v>565</v>
+      </c>
+      <c r="D60" t="s">
         <v>566</v>
-      </c>
-      <c r="C60" t="s">
-        <v>567</v>
-      </c>
-      <c r="D60" t="s">
-        <v>568</v>
       </c>
       <c r="E60">
         <v>2016</v>
       </c>
       <c r="F60" t="s">
+        <v>567</v>
+      </c>
+      <c r="G60" t="s">
+        <v>568</v>
+      </c>
+      <c r="H60" t="s">
         <v>569</v>
-      </c>
-      <c r="G60" t="s">
-        <v>570</v>
-      </c>
-      <c r="H60" t="s">
-        <v>571</v>
       </c>
       <c r="I60" t="s">
         <v>39</v>
       </c>
       <c r="J60" t="s">
+        <v>570</v>
+      </c>
+      <c r="L60" t="s">
+        <v>571</v>
+      </c>
+      <c r="M60" t="s">
         <v>572</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60" t="s">
         <v>573</v>
-      </c>
-      <c r="M60" t="s">
-        <v>574</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>0</v>
-      </c>
-      <c r="R60" t="s">
-        <v>575</v>
       </c>
       <c r="S60" s="2">
         <v>45113</v>
@@ -7759,13 +7741,13 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Y60" t="s">
         <v>48</v>
@@ -7776,40 +7758,40 @@
         <v>7642</v>
       </c>
       <c r="B61" t="s">
+        <v>575</v>
+      </c>
+      <c r="C61" t="s">
+        <v>576</v>
+      </c>
+      <c r="D61" t="s">
         <v>577</v>
-      </c>
-      <c r="C61" t="s">
-        <v>578</v>
-      </c>
-      <c r="D61" t="s">
-        <v>579</v>
       </c>
       <c r="E61">
         <v>2009</v>
       </c>
       <c r="I61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J61" t="s">
+        <v>578</v>
+      </c>
+      <c r="M61" t="s">
+        <v>579</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61" t="s">
         <v>580</v>
-      </c>
-      <c r="M61" t="s">
-        <v>581</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>0</v>
-      </c>
-      <c r="R61" t="s">
-        <v>582</v>
       </c>
       <c r="S61" s="2">
         <v>45113</v>
@@ -7824,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Y61" t="s">
         <v>48</v>
@@ -7835,46 +7817,46 @@
         <v>8560</v>
       </c>
       <c r="B62" t="s">
+        <v>582</v>
+      </c>
+      <c r="C62" t="s">
+        <v>583</v>
+      </c>
+      <c r="D62" t="s">
         <v>584</v>
-      </c>
-      <c r="C62" t="s">
-        <v>585</v>
-      </c>
-      <c r="D62" t="s">
-        <v>586</v>
       </c>
       <c r="E62">
         <v>2023</v>
       </c>
       <c r="I62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J62" t="s">
+        <v>585</v>
+      </c>
+      <c r="K62" t="s">
+        <v>586</v>
+      </c>
+      <c r="L62" t="s">
         <v>587</v>
       </c>
-      <c r="K62" t="s">
+      <c r="M62" t="s">
         <v>588</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
         <v>589</v>
-      </c>
-      <c r="M62" t="s">
-        <v>590</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
-      </c>
-      <c r="R62" t="s">
-        <v>591</v>
       </c>
       <c r="S62" s="2">
         <v>45146</v>
@@ -7892,7 +7874,7 @@
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Y62" t="s">
         <v>48</v>
@@ -7903,55 +7885,55 @@
         <v>872</v>
       </c>
       <c r="B63" t="s">
+        <v>591</v>
+      </c>
+      <c r="C63" t="s">
+        <v>592</v>
+      </c>
+      <c r="D63" t="s">
         <v>593</v>
-      </c>
-      <c r="C63" t="s">
-        <v>594</v>
-      </c>
-      <c r="D63" t="s">
-        <v>595</v>
       </c>
       <c r="E63">
         <v>2009</v>
       </c>
       <c r="F63" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G63">
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I63" t="s">
         <v>39</v>
       </c>
       <c r="J63" t="s">
+        <v>595</v>
+      </c>
+      <c r="K63" t="s">
+        <v>596</v>
+      </c>
+      <c r="L63" t="s">
         <v>597</v>
       </c>
-      <c r="K63" t="s">
+      <c r="M63" t="s">
         <v>598</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63" t="s">
         <v>599</v>
-      </c>
-      <c r="M63" t="s">
-        <v>600</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
-      <c r="R63" t="s">
-        <v>601</v>
       </c>
       <c r="S63" s="2">
         <v>45113</v>
@@ -7969,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y63" t="s">
         <v>48</v>
@@ -7980,49 +7962,49 @@
         <v>10029</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>602</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>604</v>
       </c>
       <c r="E64" s="5">
         <v>2022</v>
       </c>
       <c r="F64" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="I64" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J64" s="5" t="s">
+      <c r="L64" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="M64" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="L64" s="5" t="s">
+      <c r="N64" s="5">
+        <v>1</v>
+      </c>
+      <c r="O64" s="5">
+        <v>0</v>
+      </c>
+      <c r="P64" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>0</v>
+      </c>
+      <c r="R64" s="5" t="s">
         <v>608</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="N64" s="5">
-        <v>1</v>
-      </c>
-      <c r="O64" s="5">
-        <v>0</v>
-      </c>
-      <c r="P64" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="5">
-        <v>0</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>610</v>
       </c>
       <c r="S64" s="6">
         <v>45113</v>
@@ -8039,9 +8021,7 @@
       <c r="Y64" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AF64" s="1" t="s">
-        <v>530</v>
-      </c>
+      <c r="AF64" s="1"/>
       <c r="AG64" s="5">
         <v>1</v>
       </c>
@@ -8054,52 +8034,52 @@
         <v>1049</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>611</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>613</v>
       </c>
       <c r="E65" s="5">
         <v>2008</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G65" s="5">
         <v>3</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I65" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J65" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="M65" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="L65" s="5" t="s">
+      <c r="N65" s="5">
+        <v>1</v>
+      </c>
+      <c r="O65" s="5">
+        <v>0</v>
+      </c>
+      <c r="P65" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>0</v>
+      </c>
+      <c r="R65" s="5" t="s">
         <v>615</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="N65" s="5">
-        <v>1</v>
-      </c>
-      <c r="O65" s="5">
-        <v>0</v>
-      </c>
-      <c r="P65" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="5">
-        <v>0</v>
-      </c>
-      <c r="R65" s="5" t="s">
-        <v>617</v>
       </c>
       <c r="S65" s="6">
         <v>45113</v>
@@ -8111,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="W65" s="5">
         <v>1</v>
@@ -8119,9 +8099,7 @@
       <c r="Y65" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="AF65" s="1" t="s">
-        <v>530</v>
-      </c>
+      <c r="AF65" s="1"/>
       <c r="AG65" s="5">
         <v>1</v>
       </c>
@@ -8134,52 +8112,52 @@
         <v>585</v>
       </c>
       <c r="B66" t="s">
+        <v>617</v>
+      </c>
+      <c r="C66" t="s">
+        <v>618</v>
+      </c>
+      <c r="D66" t="s">
         <v>619</v>
-      </c>
-      <c r="C66" t="s">
-        <v>620</v>
-      </c>
-      <c r="D66" t="s">
-        <v>621</v>
       </c>
       <c r="E66">
         <v>2021</v>
       </c>
       <c r="F66" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I66" t="s">
         <v>39</v>
       </c>
       <c r="J66" t="s">
+        <v>622</v>
+      </c>
+      <c r="L66" t="s">
+        <v>623</v>
+      </c>
+      <c r="M66" t="s">
         <v>624</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66" t="s">
         <v>625</v>
-      </c>
-      <c r="M66" t="s">
-        <v>626</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66" t="s">
-        <v>627</v>
       </c>
       <c r="S66" s="2">
         <v>45113</v>
@@ -8194,7 +8172,7 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Y66" t="s">
         <v>48</v>
@@ -8205,40 +8183,40 @@
         <v>8126</v>
       </c>
       <c r="B67" t="s">
+        <v>627</v>
+      </c>
+      <c r="C67" t="s">
+        <v>628</v>
+      </c>
+      <c r="D67" t="s">
         <v>629</v>
-      </c>
-      <c r="C67" t="s">
-        <v>630</v>
-      </c>
-      <c r="D67" t="s">
-        <v>631</v>
       </c>
       <c r="E67">
         <v>2019</v>
       </c>
       <c r="I67" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J67" t="s">
+        <v>630</v>
+      </c>
+      <c r="M67" t="s">
+        <v>631</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
         <v>632</v>
-      </c>
-      <c r="M67" t="s">
-        <v>633</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="R67" t="s">
-        <v>634</v>
       </c>
       <c r="S67" s="2">
         <v>45113</v>
@@ -8253,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="Y67" t="s">
         <v>48</v>
@@ -8264,40 +8242,40 @@
         <v>6446</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>638</v>
       </c>
       <c r="E68" s="5">
         <v>2020</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J68" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="N68" s="5">
+        <v>1</v>
+      </c>
+      <c r="O68" s="5">
+        <v>0</v>
+      </c>
+      <c r="P68" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>0</v>
+      </c>
+      <c r="R68" s="5" t="s">
         <v>639</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="N68" s="5">
-        <v>1</v>
-      </c>
-      <c r="O68" s="5">
-        <v>0</v>
-      </c>
-      <c r="P68" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="5">
-        <v>0</v>
-      </c>
-      <c r="R68" s="5" t="s">
-        <v>641</v>
       </c>
       <c r="S68" s="6">
         <v>45113</v>
@@ -8315,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Y68" s="5" t="s">
         <v>48</v>
@@ -8326,19 +8304,19 @@
         <v>7332</v>
       </c>
       <c r="B69" t="s">
+        <v>641</v>
+      </c>
+      <c r="C69" t="s">
+        <v>642</v>
+      </c>
+      <c r="D69" t="s">
         <v>643</v>
-      </c>
-      <c r="C69" t="s">
-        <v>644</v>
-      </c>
-      <c r="D69" t="s">
-        <v>645</v>
       </c>
       <c r="E69">
         <v>2019</v>
       </c>
       <c r="F69" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G69" t="s">
         <v>63</v>
@@ -8350,14 +8328,14 @@
         <v>39</v>
       </c>
       <c r="J69" t="s">
+        <v>645</v>
+      </c>
+      <c r="L69" t="s">
+        <v>646</v>
+      </c>
+      <c r="M69" t="s">
         <v>647</v>
       </c>
-      <c r="L69" t="s">
-        <v>648</v>
-      </c>
-      <c r="M69" t="s">
-        <v>649</v>
-      </c>
       <c r="N69">
         <v>1</v>
       </c>
@@ -8371,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="S69" s="2">
         <v>45113</v>
@@ -8386,7 +8364,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y69" t="s">
         <v>48</v>
@@ -8397,19 +8375,19 @@
         <v>8495</v>
       </c>
       <c r="B70" t="s">
+        <v>648</v>
+      </c>
+      <c r="C70" t="s">
+        <v>649</v>
+      </c>
+      <c r="D70" t="s">
         <v>650</v>
-      </c>
-      <c r="C70" t="s">
-        <v>651</v>
-      </c>
-      <c r="D70" t="s">
-        <v>652</v>
       </c>
       <c r="E70">
         <v>2021</v>
       </c>
       <c r="F70" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -8421,14 +8399,14 @@
         <v>39</v>
       </c>
       <c r="J70" t="s">
+        <v>652</v>
+      </c>
+      <c r="L70" t="s">
+        <v>653</v>
+      </c>
+      <c r="M70" t="s">
         <v>654</v>
       </c>
-      <c r="L70" t="s">
-        <v>655</v>
-      </c>
-      <c r="M70" t="s">
-        <v>656</v>
-      </c>
       <c r="N70">
         <v>1</v>
       </c>
@@ -8442,7 +8420,7 @@
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="S70" s="2">
         <v>45113</v>
@@ -8460,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y70" t="s">
         <v>48</v>
@@ -8471,43 +8449,43 @@
         <v>8113</v>
       </c>
       <c r="B71" t="s">
+        <v>655</v>
+      </c>
+      <c r="C71" t="s">
+        <v>656</v>
+      </c>
+      <c r="D71" t="s">
         <v>657</v>
-      </c>
-      <c r="C71" t="s">
-        <v>658</v>
-      </c>
-      <c r="D71" t="s">
-        <v>659</v>
       </c>
       <c r="E71">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J71" t="s">
+        <v>658</v>
+      </c>
+      <c r="L71" t="s">
+        <v>659</v>
+      </c>
+      <c r="M71" t="s">
         <v>660</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71" t="s">
         <v>661</v>
-      </c>
-      <c r="M71" t="s">
-        <v>662</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
-      </c>
-      <c r="R71" t="s">
-        <v>663</v>
       </c>
       <c r="S71" s="2">
         <v>45113</v>
@@ -8522,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="Y71" t="s">
         <v>48</v>
@@ -8533,52 +8511,52 @@
         <v>948</v>
       </c>
       <c r="B72" t="s">
+        <v>663</v>
+      </c>
+      <c r="C72" t="s">
+        <v>664</v>
+      </c>
+      <c r="D72" t="s">
         <v>665</v>
-      </c>
-      <c r="C72" t="s">
-        <v>666</v>
-      </c>
-      <c r="D72" t="s">
-        <v>667</v>
       </c>
       <c r="E72">
         <v>2009</v>
       </c>
       <c r="F72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I72" t="s">
         <v>39</v>
       </c>
       <c r="J72" t="s">
+        <v>666</v>
+      </c>
+      <c r="L72" t="s">
+        <v>667</v>
+      </c>
+      <c r="M72" t="s">
         <v>668</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
         <v>669</v>
-      </c>
-      <c r="M72" t="s">
-        <v>670</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72" t="s">
-        <v>671</v>
       </c>
       <c r="S72" s="2">
         <v>45113</v>
@@ -8593,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y72" t="s">
         <v>48</v>
@@ -8604,55 +8582,55 @@
         <v>8480</v>
       </c>
       <c r="B73" t="s">
+        <v>670</v>
+      </c>
+      <c r="C73" t="s">
+        <v>671</v>
+      </c>
+      <c r="D73" t="s">
         <v>672</v>
-      </c>
-      <c r="C73" t="s">
-        <v>673</v>
-      </c>
-      <c r="D73" t="s">
-        <v>674</v>
       </c>
       <c r="E73">
         <v>2010</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H73" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I73" t="s">
         <v>39</v>
       </c>
       <c r="J73" t="s">
+        <v>674</v>
+      </c>
+      <c r="K73" t="s">
+        <v>675</v>
+      </c>
+      <c r="L73" t="s">
         <v>676</v>
       </c>
-      <c r="K73" t="s">
+      <c r="M73" t="s">
         <v>677</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73" t="s">
         <v>678</v>
-      </c>
-      <c r="M73" t="s">
-        <v>679</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73" t="s">
-        <v>680</v>
       </c>
       <c r="S73" s="2">
         <v>45113</v>
@@ -8664,13 +8642,13 @@
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="Y73" t="s">
         <v>48</v>
@@ -8681,43 +8659,43 @@
         <v>4590</v>
       </c>
       <c r="B74" t="s">
+        <v>680</v>
+      </c>
+      <c r="C74" t="s">
+        <v>681</v>
+      </c>
+      <c r="D74" t="s">
         <v>682</v>
-      </c>
-      <c r="C74" t="s">
-        <v>683</v>
-      </c>
-      <c r="D74" t="s">
-        <v>684</v>
       </c>
       <c r="E74">
         <v>2014</v>
       </c>
       <c r="I74" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J74" t="s">
+        <v>683</v>
+      </c>
+      <c r="L74" t="s">
+        <v>684</v>
+      </c>
+      <c r="M74" t="s">
         <v>685</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="R74" t="s">
         <v>686</v>
-      </c>
-      <c r="M74" t="s">
-        <v>687</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="R74" t="s">
-        <v>688</v>
       </c>
       <c r="S74" s="2">
         <v>45113</v>
@@ -8732,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="Y74" t="s">
         <v>48</v>
@@ -8743,46 +8721,46 @@
         <v>8629</v>
       </c>
       <c r="B75" t="s">
+        <v>687</v>
+      </c>
+      <c r="C75" t="s">
+        <v>688</v>
+      </c>
+      <c r="D75" t="s">
         <v>689</v>
-      </c>
-      <c r="C75" t="s">
-        <v>690</v>
-      </c>
-      <c r="D75" t="s">
-        <v>691</v>
       </c>
       <c r="E75">
         <v>2022</v>
       </c>
       <c r="I75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J75" t="s">
+        <v>690</v>
+      </c>
+      <c r="K75" t="s">
+        <v>691</v>
+      </c>
+      <c r="L75" t="s">
         <v>692</v>
       </c>
-      <c r="K75" t="s">
+      <c r="M75" t="s">
         <v>693</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="R75" t="s">
         <v>694</v>
-      </c>
-      <c r="M75" t="s">
-        <v>695</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="R75" t="s">
-        <v>696</v>
       </c>
       <c r="S75" s="2">
         <v>45113</v>
@@ -8797,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="Y75" t="s">
         <v>48</v>
@@ -8808,41 +8786,41 @@
         <v>8032</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>698</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>700</v>
       </c>
       <c r="E76" s="5">
         <v>2004</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I76" s="5" t="s">
         <v>39</v>
       </c>
       <c r="J76" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="L76" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="K76" s="5" t="s">
+      <c r="M76" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="L76" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="M76" s="5" t="s">
-        <v>705</v>
-      </c>
       <c r="N76" s="5">
         <v>1</v>
       </c>
@@ -8856,7 +8834,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="S76" s="6">
         <v>45113</v>
@@ -8871,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="Y76" s="5" t="s">
         <v>48</v>
@@ -8882,19 +8860,19 @@
         <v>10241</v>
       </c>
       <c r="B77" t="s">
+        <v>705</v>
+      </c>
+      <c r="C77" t="s">
+        <v>706</v>
+      </c>
+      <c r="D77" t="s">
         <v>707</v>
-      </c>
-      <c r="C77" t="s">
-        <v>708</v>
-      </c>
-      <c r="D77" t="s">
-        <v>709</v>
       </c>
       <c r="E77">
         <v>2012</v>
       </c>
       <c r="F77" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -8906,28 +8884,28 @@
         <v>39</v>
       </c>
       <c r="J77" t="s">
+        <v>709</v>
+      </c>
+      <c r="L77" t="s">
+        <v>710</v>
+      </c>
+      <c r="M77" t="s">
         <v>711</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77" t="s">
         <v>712</v>
-      </c>
-      <c r="M77" t="s">
-        <v>713</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="R77" t="s">
-        <v>714</v>
       </c>
       <c r="S77" s="2">
         <v>45113</v>
@@ -8945,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Y77" t="s">
         <v>48</v>
@@ -8956,52 +8934,52 @@
         <v>1018</v>
       </c>
       <c r="B78" t="s">
+        <v>714</v>
+      </c>
+      <c r="C78" t="s">
+        <v>715</v>
+      </c>
+      <c r="D78" t="s">
         <v>716</v>
-      </c>
-      <c r="C78" t="s">
-        <v>717</v>
-      </c>
-      <c r="D78" t="s">
-        <v>718</v>
       </c>
       <c r="E78">
         <v>2006</v>
       </c>
       <c r="F78" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G78">
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I78" t="s">
         <v>39</v>
       </c>
       <c r="J78" t="s">
+        <v>718</v>
+      </c>
+      <c r="L78" t="s">
+        <v>719</v>
+      </c>
+      <c r="M78" t="s">
         <v>720</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="R78" t="s">
         <v>721</v>
-      </c>
-      <c r="M78" t="s">
-        <v>722</v>
-      </c>
-      <c r="N78">
-        <v>1</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="R78" t="s">
-        <v>723</v>
       </c>
       <c r="S78" s="2">
         <v>45113</v>
@@ -9021,9 +8999,7 @@
       <c r="Y78" t="s">
         <v>48</v>
       </c>
-      <c r="AF78" s="1" t="s">
-        <v>530</v>
-      </c>
+      <c r="AF78" s="1"/>
       <c r="AG78">
         <v>1</v>
       </c>
@@ -9036,43 +9012,43 @@
         <v>147</v>
       </c>
       <c r="B79" t="s">
+        <v>722</v>
+      </c>
+      <c r="C79" t="s">
+        <v>723</v>
+      </c>
+      <c r="D79" t="s">
         <v>724</v>
-      </c>
-      <c r="C79" t="s">
-        <v>725</v>
-      </c>
-      <c r="D79" t="s">
-        <v>726</v>
       </c>
       <c r="E79">
         <v>2018</v>
       </c>
       <c r="I79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J79" t="s">
+        <v>725</v>
+      </c>
+      <c r="L79" t="s">
+        <v>726</v>
+      </c>
+      <c r="M79" t="s">
         <v>727</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79" t="s">
         <v>728</v>
-      </c>
-      <c r="M79" t="s">
-        <v>729</v>
-      </c>
-      <c r="N79">
-        <v>1</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="R79" t="s">
-        <v>730</v>
       </c>
       <c r="S79" s="2">
         <v>45113</v>
@@ -9102,19 +9078,19 @@
         <v>6992</v>
       </c>
       <c r="B80" t="s">
+        <v>729</v>
+      </c>
+      <c r="C80" t="s">
+        <v>730</v>
+      </c>
+      <c r="D80" t="s">
         <v>731</v>
-      </c>
-      <c r="C80" t="s">
-        <v>732</v>
-      </c>
-      <c r="D80" t="s">
-        <v>733</v>
       </c>
       <c r="E80">
         <v>2017</v>
       </c>
       <c r="F80" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -9126,31 +9102,31 @@
         <v>39</v>
       </c>
       <c r="J80" t="s">
+        <v>733</v>
+      </c>
+      <c r="K80" t="s">
+        <v>734</v>
+      </c>
+      <c r="L80" t="s">
         <v>735</v>
       </c>
-      <c r="K80" t="s">
+      <c r="M80" t="s">
         <v>736</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80" t="s">
         <v>737</v>
-      </c>
-      <c r="M80" t="s">
-        <v>738</v>
-      </c>
-      <c r="N80">
-        <v>1</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80" t="s">
-        <v>739</v>
       </c>
       <c r="S80" s="2">
         <v>45113</v>
@@ -9168,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y80" t="s">
         <v>48</v>
@@ -9179,43 +9155,43 @@
         <v>134</v>
       </c>
       <c r="B81" t="s">
+        <v>738</v>
+      </c>
+      <c r="C81" t="s">
+        <v>739</v>
+      </c>
+      <c r="D81" t="s">
         <v>740</v>
-      </c>
-      <c r="C81" t="s">
-        <v>741</v>
-      </c>
-      <c r="D81" t="s">
-        <v>742</v>
       </c>
       <c r="E81">
         <v>2019</v>
       </c>
       <c r="I81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J81" t="s">
+        <v>741</v>
+      </c>
+      <c r="L81" t="s">
+        <v>742</v>
+      </c>
+      <c r="M81" t="s">
         <v>743</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81" t="s">
         <v>744</v>
-      </c>
-      <c r="M81" t="s">
-        <v>745</v>
-      </c>
-      <c r="N81">
-        <v>1</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81" t="s">
-        <v>746</v>
       </c>
       <c r="S81" s="2">
         <v>45113</v>
@@ -9230,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y81" t="s">
         <v>48</v>
@@ -9241,19 +9217,19 @@
         <v>7190</v>
       </c>
       <c r="B82" t="s">
+        <v>745</v>
+      </c>
+      <c r="C82" t="s">
+        <v>746</v>
+      </c>
+      <c r="D82" t="s">
         <v>747</v>
-      </c>
-      <c r="C82" t="s">
-        <v>748</v>
-      </c>
-      <c r="D82" t="s">
-        <v>749</v>
       </c>
       <c r="E82">
         <v>2016</v>
       </c>
       <c r="F82" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -9265,25 +9241,25 @@
         <v>39</v>
       </c>
       <c r="J82" t="s">
+        <v>749</v>
+      </c>
+      <c r="M82" t="s">
+        <v>750</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82" t="s">
         <v>751</v>
-      </c>
-      <c r="M82" t="s">
-        <v>752</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>0</v>
-      </c>
-      <c r="R82" t="s">
-        <v>753</v>
       </c>
       <c r="S82" s="2">
         <v>45113</v>
@@ -9301,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="Y82" t="s">
         <v>48</v>
@@ -9312,52 +9288,52 @@
         <v>125</v>
       </c>
       <c r="B83" t="s">
+        <v>753</v>
+      </c>
+      <c r="C83" t="s">
+        <v>754</v>
+      </c>
+      <c r="D83" t="s">
         <v>755</v>
-      </c>
-      <c r="C83" t="s">
-        <v>756</v>
-      </c>
-      <c r="D83" t="s">
-        <v>757</v>
       </c>
       <c r="E83">
         <v>2013</v>
       </c>
       <c r="F83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G83">
         <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I83" t="s">
         <v>39</v>
       </c>
       <c r="J83" t="s">
+        <v>757</v>
+      </c>
+      <c r="L83" t="s">
+        <v>758</v>
+      </c>
+      <c r="M83" t="s">
         <v>759</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83" t="s">
         <v>760</v>
-      </c>
-      <c r="M83" t="s">
-        <v>761</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83" t="s">
-        <v>762</v>
       </c>
       <c r="S83" s="2">
         <v>45113</v>
@@ -9375,7 +9351,7 @@
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y83" t="s">
         <v>48</v>
@@ -9386,52 +9362,52 @@
         <v>1040</v>
       </c>
       <c r="B84" t="s">
+        <v>761</v>
+      </c>
+      <c r="C84" t="s">
+        <v>762</v>
+      </c>
+      <c r="D84" t="s">
         <v>763</v>
-      </c>
-      <c r="C84" t="s">
-        <v>764</v>
-      </c>
-      <c r="D84" t="s">
-        <v>765</v>
       </c>
       <c r="E84">
         <v>2006</v>
       </c>
       <c r="F84" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G84">
         <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I84" t="s">
         <v>39</v>
       </c>
       <c r="J84" t="s">
+        <v>764</v>
+      </c>
+      <c r="L84" t="s">
+        <v>765</v>
+      </c>
+      <c r="M84" t="s">
         <v>766</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
         <v>767</v>
-      </c>
-      <c r="M84" t="s">
-        <v>768</v>
-      </c>
-      <c r="N84">
-        <v>1</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="R84" t="s">
-        <v>769</v>
       </c>
       <c r="S84" s="2">
         <v>45113</v>
@@ -9449,7 +9425,7 @@
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y84" t="s">
         <v>48</v>
@@ -9460,29 +9436,29 @@
         <v>7257</v>
       </c>
       <c r="B85" t="s">
+        <v>768</v>
+      </c>
+      <c r="C85" t="s">
+        <v>769</v>
+      </c>
+      <c r="D85" t="s">
         <v>770</v>
-      </c>
-      <c r="C85" t="s">
-        <v>771</v>
-      </c>
-      <c r="D85" t="s">
-        <v>772</v>
       </c>
       <c r="E85">
         <v>2012</v>
       </c>
       <c r="I85" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J85" t="s">
+        <v>771</v>
+      </c>
+      <c r="L85" t="s">
+        <v>772</v>
+      </c>
+      <c r="M85" t="s">
         <v>773</v>
       </c>
-      <c r="L85" t="s">
-        <v>774</v>
-      </c>
-      <c r="M85" t="s">
-        <v>775</v>
-      </c>
       <c r="N85">
         <v>1</v>
       </c>
@@ -9496,7 +9472,7 @@
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="S85" s="2">
         <v>45113</v>
@@ -9511,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="Y85" t="s">
         <v>48</v>
@@ -9522,49 +9498,49 @@
         <v>3283</v>
       </c>
       <c r="B86" t="s">
+        <v>775</v>
+      </c>
+      <c r="C86" t="s">
+        <v>776</v>
+      </c>
+      <c r="D86" t="s">
         <v>777</v>
-      </c>
-      <c r="C86" t="s">
-        <v>778</v>
-      </c>
-      <c r="D86" t="s">
-        <v>779</v>
       </c>
       <c r="E86">
         <v>2013</v>
       </c>
       <c r="F86" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H86" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I86" t="s">
         <v>39</v>
       </c>
       <c r="J86" t="s">
+        <v>779</v>
+      </c>
+      <c r="L86" t="s">
+        <v>780</v>
+      </c>
+      <c r="M86" t="s">
         <v>781</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86" t="s">
         <v>782</v>
-      </c>
-      <c r="M86" t="s">
-        <v>783</v>
-      </c>
-      <c r="N86">
-        <v>1</v>
-      </c>
-      <c r="O86">
-        <v>0</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="R86" t="s">
-        <v>784</v>
       </c>
       <c r="S86" s="2">
         <v>45113</v>
@@ -9576,7 +9552,7 @@
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W86">
         <v>1</v>
@@ -9588,10 +9564,10 @@
         <v>1</v>
       </c>
       <c r="AE86" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AF86" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AG86">
         <v>1</v>
@@ -9605,52 +9581,52 @@
         <v>5187</v>
       </c>
       <c r="B87" t="s">
+        <v>784</v>
+      </c>
+      <c r="C87" t="s">
+        <v>785</v>
+      </c>
+      <c r="D87" t="s">
         <v>786</v>
-      </c>
-      <c r="C87" t="s">
-        <v>787</v>
-      </c>
-      <c r="D87" t="s">
-        <v>788</v>
       </c>
       <c r="E87">
         <v>1987</v>
       </c>
       <c r="F87" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H87" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I87" t="s">
         <v>39</v>
       </c>
       <c r="J87" t="s">
+        <v>788</v>
+      </c>
+      <c r="L87" t="s">
+        <v>789</v>
+      </c>
+      <c r="M87" t="s">
         <v>790</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87" t="s">
         <v>791</v>
-      </c>
-      <c r="M87" t="s">
-        <v>792</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="R87" t="s">
-        <v>793</v>
       </c>
       <c r="S87" s="2">
         <v>45113</v>
@@ -9665,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="Y87" t="s">
         <v>48</v>
@@ -9676,52 +9652,52 @@
         <v>4269</v>
       </c>
       <c r="B88" t="s">
+        <v>793</v>
+      </c>
+      <c r="C88" t="s">
+        <v>794</v>
+      </c>
+      <c r="D88" t="s">
         <v>795</v>
-      </c>
-      <c r="C88" t="s">
-        <v>796</v>
-      </c>
-      <c r="D88" t="s">
-        <v>797</v>
       </c>
       <c r="E88">
         <v>2004</v>
       </c>
       <c r="F88" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I88" t="s">
         <v>39</v>
       </c>
       <c r="J88" t="s">
+        <v>798</v>
+      </c>
+      <c r="L88" t="s">
+        <v>799</v>
+      </c>
+      <c r="M88" t="s">
         <v>800</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88">
+        <v>1</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88" t="s">
         <v>801</v>
-      </c>
-      <c r="M88" t="s">
-        <v>802</v>
-      </c>
-      <c r="N88">
-        <v>1</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="R88" t="s">
-        <v>803</v>
       </c>
       <c r="S88" s="2">
         <v>45113</v>
@@ -9733,13 +9709,13 @@
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y88" t="s">
         <v>48</v>
@@ -9750,49 +9726,49 @@
         <v>8904</v>
       </c>
       <c r="B89" t="s">
+        <v>802</v>
+      </c>
+      <c r="C89" t="s">
+        <v>803</v>
+      </c>
+      <c r="D89" t="s">
         <v>804</v>
-      </c>
-      <c r="C89" t="s">
-        <v>805</v>
-      </c>
-      <c r="D89" t="s">
-        <v>806</v>
       </c>
       <c r="E89">
         <v>2010</v>
       </c>
       <c r="F89" t="s">
+        <v>805</v>
+      </c>
+      <c r="H89" t="s">
+        <v>102</v>
+      </c>
+      <c r="I89" t="s">
+        <v>806</v>
+      </c>
+      <c r="J89" t="s">
         <v>807</v>
       </c>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="L89" t="s">
         <v>808</v>
       </c>
-      <c r="J89" t="s">
+      <c r="M89" t="s">
         <v>809</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89">
+        <v>1</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89" t="s">
         <v>810</v>
-      </c>
-      <c r="M89" t="s">
-        <v>811</v>
-      </c>
-      <c r="N89">
-        <v>1</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="R89" t="s">
-        <v>812</v>
       </c>
       <c r="S89" s="2">
         <v>45113</v>
@@ -9824,28 +9800,28 @@
         <v>7195</v>
       </c>
       <c r="B90" t="s">
+        <v>811</v>
+      </c>
+      <c r="C90" t="s">
+        <v>812</v>
+      </c>
+      <c r="D90" t="s">
         <v>813</v>
-      </c>
-      <c r="C90" t="s">
-        <v>814</v>
-      </c>
-      <c r="D90" t="s">
-        <v>815</v>
       </c>
       <c r="E90">
         <v>2017</v>
       </c>
       <c r="I90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J90" t="s">
+        <v>814</v>
+      </c>
+      <c r="L90" t="s">
+        <v>815</v>
+      </c>
+      <c r="M90" t="s">
         <v>816</v>
-      </c>
-      <c r="L90" t="s">
-        <v>817</v>
-      </c>
-      <c r="M90" t="s">
-        <v>818</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -9872,7 +9848,7 @@
         <v>0</v>
       </c>
       <c r="X90" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Y90" t="s">
         <v>48</v>
@@ -9883,52 +9859,52 @@
         <v>1141</v>
       </c>
       <c r="B91" t="s">
+        <v>817</v>
+      </c>
+      <c r="C91" t="s">
+        <v>818</v>
+      </c>
+      <c r="D91" t="s">
         <v>819</v>
-      </c>
-      <c r="C91" t="s">
-        <v>820</v>
-      </c>
-      <c r="D91" t="s">
-        <v>821</v>
       </c>
       <c r="E91">
         <v>2008</v>
       </c>
       <c r="F91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G91" t="s">
         <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I91" t="s">
         <v>39</v>
       </c>
       <c r="J91" t="s">
+        <v>821</v>
+      </c>
+      <c r="L91" t="s">
+        <v>822</v>
+      </c>
+      <c r="M91" t="s">
         <v>823</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91">
+        <v>1</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91" t="s">
         <v>824</v>
-      </c>
-      <c r="M91" t="s">
-        <v>825</v>
-      </c>
-      <c r="N91">
-        <v>1</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
-        <v>0</v>
-      </c>
-      <c r="R91" t="s">
-        <v>826</v>
       </c>
       <c r="S91" s="2">
         <v>45113</v>
@@ -9940,13 +9916,13 @@
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W91">
         <v>0</v>
       </c>
       <c r="X91" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="Y91" t="s">
         <v>48</v>
@@ -9957,46 +9933,46 @@
         <v>9874</v>
       </c>
       <c r="B92" t="s">
+        <v>826</v>
+      </c>
+      <c r="C92" t="s">
+        <v>827</v>
+      </c>
+      <c r="D92" t="s">
         <v>828</v>
-      </c>
-      <c r="C92" t="s">
-        <v>829</v>
-      </c>
-      <c r="D92" t="s">
-        <v>830</v>
       </c>
       <c r="E92">
         <v>2020</v>
       </c>
       <c r="I92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J92" t="s">
+        <v>829</v>
+      </c>
+      <c r="K92" t="s">
+        <v>830</v>
+      </c>
+      <c r="L92" t="s">
         <v>831</v>
       </c>
-      <c r="K92" t="s">
+      <c r="M92" t="s">
         <v>832</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92">
+        <v>1</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
+        <v>0</v>
+      </c>
+      <c r="R92" t="s">
         <v>833</v>
-      </c>
-      <c r="M92" t="s">
-        <v>834</v>
-      </c>
-      <c r="N92">
-        <v>1</v>
-      </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
-        <v>0</v>
-      </c>
-      <c r="Q92">
-        <v>0</v>
-      </c>
-      <c r="R92" t="s">
-        <v>835</v>
       </c>
       <c r="S92" s="2">
         <v>45113</v>
@@ -10011,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="X92" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="Y92" t="s">
         <v>48</v>
@@ -10022,41 +9998,41 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
+        <v>835</v>
+      </c>
+      <c r="C93" t="s">
+        <v>836</v>
+      </c>
+      <c r="D93" t="s">
         <v>837</v>
-      </c>
-      <c r="C93" t="s">
-        <v>838</v>
-      </c>
-      <c r="D93" t="s">
-        <v>839</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
       </c>
       <c r="H93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I93" t="s">
         <v>39</v>
       </c>
       <c r="J93" t="s">
+        <v>839</v>
+      </c>
+      <c r="K93" t="s">
+        <v>840</v>
+      </c>
+      <c r="L93" t="s">
         <v>841</v>
       </c>
-      <c r="K93" t="s">
+      <c r="M93" t="s">
         <v>842</v>
       </c>
-      <c r="L93" t="s">
-        <v>843</v>
-      </c>
-      <c r="M93" t="s">
-        <v>844</v>
-      </c>
       <c r="N93">
         <v>1</v>
       </c>
@@ -10070,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="R93" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="S93" s="2">
         <v>45113</v>
@@ -10085,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="X93" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y93" t="s">
         <v>48</v>
@@ -10096,46 +10072,46 @@
         <v>9158</v>
       </c>
       <c r="B94" t="s">
+        <v>843</v>
+      </c>
+      <c r="C94" t="s">
+        <v>844</v>
+      </c>
+      <c r="D94" t="s">
         <v>845</v>
-      </c>
-      <c r="C94" t="s">
-        <v>846</v>
-      </c>
-      <c r="D94" t="s">
-        <v>847</v>
       </c>
       <c r="E94">
         <v>2023</v>
       </c>
       <c r="I94" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J94" t="s">
+        <v>846</v>
+      </c>
+      <c r="K94" t="s">
+        <v>847</v>
+      </c>
+      <c r="L94" t="s">
         <v>848</v>
       </c>
-      <c r="K94" t="s">
+      <c r="M94" t="s">
         <v>849</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94">
+        <v>1</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94" t="s">
         <v>850</v>
-      </c>
-      <c r="M94" t="s">
-        <v>851</v>
-      </c>
-      <c r="N94">
-        <v>1</v>
-      </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="R94" t="s">
-        <v>852</v>
       </c>
       <c r="S94" s="2">
         <v>45113</v>
@@ -10153,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="X94" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="Y94" t="s">
         <v>48</v>
@@ -10164,52 +10140,52 @@
         <v>7443</v>
       </c>
       <c r="B95" t="s">
+        <v>852</v>
+      </c>
+      <c r="C95" t="s">
+        <v>853</v>
+      </c>
+      <c r="D95" t="s">
         <v>854</v>
-      </c>
-      <c r="C95" t="s">
-        <v>855</v>
-      </c>
-      <c r="D95" t="s">
-        <v>856</v>
       </c>
       <c r="E95">
         <v>2021</v>
       </c>
       <c r="F95" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="H95" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="I95" t="s">
         <v>39</v>
       </c>
       <c r="J95" t="s">
+        <v>857</v>
+      </c>
+      <c r="K95" t="s">
+        <v>858</v>
+      </c>
+      <c r="L95" t="s">
         <v>859</v>
       </c>
-      <c r="K95" t="s">
+      <c r="M95" t="s">
         <v>860</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95" t="s">
         <v>861</v>
-      </c>
-      <c r="M95" t="s">
-        <v>862</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="R95" t="s">
-        <v>863</v>
       </c>
       <c r="S95" s="2">
         <v>45113</v>
@@ -10221,13 +10197,13 @@
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="W95">
         <v>0</v>
       </c>
       <c r="X95" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="Y95" t="s">
         <v>48</v>
@@ -10238,46 +10214,46 @@
         <v>6398</v>
       </c>
       <c r="B96" t="s">
+        <v>863</v>
+      </c>
+      <c r="C96" t="s">
+        <v>864</v>
+      </c>
+      <c r="D96" t="s">
         <v>865</v>
-      </c>
-      <c r="C96" t="s">
-        <v>866</v>
-      </c>
-      <c r="D96" t="s">
-        <v>867</v>
       </c>
       <c r="E96">
         <v>2014</v>
       </c>
       <c r="F96" t="s">
+        <v>866</v>
+      </c>
+      <c r="I96" t="s">
+        <v>166</v>
+      </c>
+      <c r="J96" t="s">
+        <v>867</v>
+      </c>
+      <c r="L96" t="s">
         <v>868</v>
       </c>
-      <c r="I96" t="s">
-        <v>167</v>
-      </c>
-      <c r="J96" t="s">
+      <c r="M96" t="s">
         <v>869</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96" t="s">
         <v>870</v>
-      </c>
-      <c r="M96" t="s">
-        <v>871</v>
-      </c>
-      <c r="N96">
-        <v>1</v>
-      </c>
-      <c r="O96">
-        <v>0</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="R96" t="s">
-        <v>872</v>
       </c>
       <c r="S96" s="2">
         <v>45113</v>
@@ -10298,7 +10274,7 @@
         <v>1</v>
       </c>
       <c r="AE96" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="AF96" s="1"/>
       <c r="AG96">
@@ -10313,19 +10289,19 @@
         <v>10518</v>
       </c>
       <c r="B97" t="s">
+        <v>872</v>
+      </c>
+      <c r="C97" t="s">
+        <v>873</v>
+      </c>
+      <c r="D97" t="s">
         <v>874</v>
-      </c>
-      <c r="C97" t="s">
-        <v>875</v>
-      </c>
-      <c r="D97" t="s">
-        <v>876</v>
       </c>
       <c r="E97">
         <v>2003</v>
       </c>
       <c r="F97" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="G97">
         <v>9</v>
@@ -10337,28 +10313,28 @@
         <v>39</v>
       </c>
       <c r="J97" t="s">
+        <v>876</v>
+      </c>
+      <c r="L97" t="s">
+        <v>877</v>
+      </c>
+      <c r="M97" t="s">
         <v>878</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97" t="s">
         <v>879</v>
-      </c>
-      <c r="M97" t="s">
-        <v>880</v>
-      </c>
-      <c r="N97">
-        <v>1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="R97" t="s">
-        <v>881</v>
       </c>
       <c r="S97" s="2">
         <v>45113</v>
@@ -10376,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="X97" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y97" t="s">
         <v>48</v>
@@ -10387,46 +10363,46 @@
         <v>2590</v>
       </c>
       <c r="B98" t="s">
+        <v>880</v>
+      </c>
+      <c r="C98" t="s">
+        <v>881</v>
+      </c>
+      <c r="D98" t="s">
         <v>882</v>
-      </c>
-      <c r="C98" t="s">
-        <v>883</v>
-      </c>
-      <c r="D98" t="s">
-        <v>884</v>
       </c>
       <c r="E98">
         <v>2020</v>
       </c>
       <c r="F98" t="s">
+        <v>883</v>
+      </c>
+      <c r="I98" t="s">
+        <v>166</v>
+      </c>
+      <c r="J98" t="s">
+        <v>884</v>
+      </c>
+      <c r="L98" t="s">
         <v>885</v>
       </c>
-      <c r="I98" t="s">
-        <v>167</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="M98" t="s">
         <v>886</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98" t="s">
         <v>887</v>
-      </c>
-      <c r="M98" t="s">
-        <v>888</v>
-      </c>
-      <c r="N98">
-        <v>1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="R98" t="s">
-        <v>889</v>
       </c>
       <c r="S98" s="2">
         <v>45113</v>
@@ -10441,7 +10417,7 @@
         <v>0</v>
       </c>
       <c r="X98" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="Y98" t="s">
         <v>48</v>
@@ -10452,52 +10428,52 @@
         <v>2915</v>
       </c>
       <c r="B99" t="s">
+        <v>888</v>
+      </c>
+      <c r="C99" t="s">
+        <v>889</v>
+      </c>
+      <c r="D99" t="s">
         <v>890</v>
-      </c>
-      <c r="C99" t="s">
-        <v>891</v>
-      </c>
-      <c r="D99" t="s">
-        <v>892</v>
       </c>
       <c r="E99">
         <v>2000</v>
       </c>
       <c r="F99" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="G99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I99" t="s">
         <v>39</v>
       </c>
       <c r="J99" t="s">
+        <v>892</v>
+      </c>
+      <c r="L99" t="s">
+        <v>893</v>
+      </c>
+      <c r="M99" t="s">
         <v>894</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99">
+        <v>1</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99" t="s">
         <v>895</v>
-      </c>
-      <c r="M99" t="s">
-        <v>896</v>
-      </c>
-      <c r="N99">
-        <v>1</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99" t="s">
-        <v>897</v>
       </c>
       <c r="S99" s="2">
         <v>45113</v>
@@ -10512,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="X99" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y99" t="s">
         <v>48</v>
@@ -10523,43 +10499,43 @@
         <v>1124</v>
       </c>
       <c r="B100" t="s">
+        <v>896</v>
+      </c>
+      <c r="C100" t="s">
+        <v>897</v>
+      </c>
+      <c r="D100" t="s">
         <v>898</v>
-      </c>
-      <c r="C100" t="s">
-        <v>899</v>
-      </c>
-      <c r="D100" t="s">
-        <v>900</v>
       </c>
       <c r="E100">
         <v>2010</v>
       </c>
       <c r="I100" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J100" t="s">
+        <v>899</v>
+      </c>
+      <c r="L100" t="s">
+        <v>900</v>
+      </c>
+      <c r="M100" t="s">
         <v>901</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100" t="s">
         <v>902</v>
-      </c>
-      <c r="M100" t="s">
-        <v>903</v>
-      </c>
-      <c r="N100">
-        <v>1</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <v>0</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100" t="s">
-        <v>904</v>
       </c>
       <c r="S100" s="2">
         <v>45113</v>
@@ -10577,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="X100" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Y100" t="s">
         <v>48</v>
@@ -10588,29 +10564,29 @@
         <v>9305</v>
       </c>
       <c r="B101" t="s">
+        <v>903</v>
+      </c>
+      <c r="C101" t="s">
+        <v>904</v>
+      </c>
+      <c r="D101" t="s">
         <v>905</v>
-      </c>
-      <c r="C101" t="s">
-        <v>906</v>
-      </c>
-      <c r="D101" t="s">
-        <v>907</v>
       </c>
       <c r="E101">
         <v>2015</v>
       </c>
       <c r="I101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J101" t="s">
+        <v>906</v>
+      </c>
+      <c r="L101" t="s">
+        <v>907</v>
+      </c>
+      <c r="M101" t="s">
         <v>908</v>
       </c>
-      <c r="L101" t="s">
-        <v>909</v>
-      </c>
-      <c r="M101" t="s">
-        <v>910</v>
-      </c>
       <c r="N101">
         <v>1</v>
       </c>
@@ -10624,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="R101" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="S101" s="2">
         <v>45113</v>
@@ -10639,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="X101" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="Y101" t="s">
         <v>48</v>

--- a/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_6.xlsx
+++ b/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/study_set_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franzprante/GitHub/MORPEP/META_CMP/data/data/study_search/database_search/processed/post_AS/packages_for_full_text_download/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E54AC1-6FBC-B948-9A5F-51BEE096738A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582B1A60-74C7-5A4C-B3CB-78B509E6FFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4980" yWindow="-21100" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="740" windowWidth="20520" windowHeight="16740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="912">
   <si>
     <t>record_id</t>
   </si>
@@ -105,12 +105,6 @@
     <t>rid2</t>
   </si>
   <si>
-    <t>contact_authors</t>
-  </si>
-  <si>
-    <t>reason_for_contact</t>
-  </si>
-  <si>
     <t>appendix</t>
   </si>
   <si>
@@ -232,9 +226,6 @@
   </si>
   <si>
     <t>Borys_2009_the</t>
-  </si>
-  <si>
-    <t>Transformation of non cumulative gr, Extract IRF</t>
   </si>
   <si>
     <t>RBUXVB2B</t>
@@ -745,12 +736,6 @@
     <t>https://doi.org/10.1002/jae.2318</t>
   </si>
   <si>
-    <t xml:space="preserve">pure rate shock=True? </t>
-  </si>
-  <si>
-    <t>Transformation of non logdiff, Extract IRF</t>
-  </si>
-  <si>
     <t>HVX5TYD7</t>
   </si>
   <si>
@@ -1087,9 +1072,6 @@
     <t>https://doi.org/10.1111/obes.12098</t>
   </si>
   <si>
-    <t>How to code size if heteroskedacity identification is used?</t>
-  </si>
-  <si>
     <t>5XTP246T</t>
   </si>
   <si>
@@ -1798,9 +1780,6 @@
     <t>https://doi.org/10.1016/j.intfin.2014.10.001</t>
   </si>
   <si>
-    <t>Transformation of non cumulative logdiff, Extract IRF</t>
-  </si>
-  <si>
     <t>5BL48QV8</t>
   </si>
   <si>
@@ -2503,9 +2482,6 @@
     <t>https://doi.org/10.1016/j.econmod.2013.01.002</t>
   </si>
   <si>
-    <t>in the paper they calculates the annualized output gap, therefore coded as logdiff_a_rgap.</t>
-  </si>
-  <si>
     <t>ZYSU8JBW</t>
   </si>
   <si>
@@ -2767,9 +2743,6 @@
     <t>https://www.tcmb.gov.tr/wps/wcm/connect/EN/TCMB+EN/Main+Menu/Publications/Research/Working+Paperss/2014/14-23</t>
   </si>
   <si>
-    <t>How to handle that log transformed data is hp filtered afterwards?</t>
-  </si>
-  <si>
     <t>P5WY85IN</t>
   </si>
   <si>
@@ -2882,6 +2855,39 @@
   </si>
   <si>
     <t>recoding_done</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>fp</t>
+  </si>
+  <si>
+    <t>dr</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>no_changes</t>
+  </si>
+  <si>
+    <t>changes_done</t>
+  </si>
+  <si>
+    <t>recoding_check</t>
+  </si>
+  <si>
+    <t>full_random_check; How to code size if heteroskedacity identification is used?</t>
+  </si>
+  <si>
+    <t>full_random_check; How to handle that log transformed data is hp filtered afterwards?</t>
+  </si>
+  <si>
+    <t>full_random_check; in the paper they calculates the annualized output gap, therefore coded as logdiff_a_rgap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">full_random_check; pure rate shock=True? </t>
   </si>
 </sst>
 </file>
@@ -3362,15 +3368,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH101"/>
+  <dimension ref="A1:AF101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R77" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF78" sqref="AF78"/>
+    <sheetView tabSelected="1" topLeftCell="W5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3455,142 +3461,139 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" t="s">
         <v>29</v>
       </c>
       <c r="AE1" t="s">
         <v>30</v>
       </c>
       <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7077</v>
       </c>
       <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>39</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>40</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>41</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
         <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2" t="s">
-        <v>44</v>
       </c>
       <c r="S2" s="2">
         <v>45111</v>
       </c>
       <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2" t="s">
         <v>45</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>46</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
+      <c r="AE2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6472</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
       </c>
       <c r="E3">
         <v>2022</v>
       </c>
       <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s">
         <v>52</v>
       </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -3604,13 +3607,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S3" s="2">
         <v>45111</v>
       </c>
       <c r="T3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -3619,52 +3622,55 @@
         <v>0</v>
       </c>
       <c r="X3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>10677</v>
       </c>
       <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>61</v>
       </c>
       <c r="E4">
         <v>2009</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="s">
-        <v>68</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -3678,13 +3684,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S4" s="2">
         <v>45111</v>
       </c>
       <c r="T4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -3693,36 +3699,42 @@
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>904</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG4">
-        <v>1</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>7557</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E5">
         <v>2003</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
@@ -3731,13 +3743,13 @@
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -3752,61 +3764,64 @@
         <v>0</v>
       </c>
       <c r="R5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="S5" s="2">
         <v>45111</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8645</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6">
         <v>2011</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="s">
         <v>83</v>
       </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>86</v>
-      </c>
       <c r="N6">
         <v>1</v>
       </c>
@@ -3820,71 +3835,80 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S6" s="2">
         <v>45111</v>
       </c>
       <c r="T6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W6">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF6" s="1"/>
-      <c r="AG6">
-        <v>1</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>10159</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>2022</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
         <v>91</v>
       </c>
-      <c r="G7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="H7" t="s">
+      <c r="M7" t="s">
         <v>93</v>
       </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M7" t="s">
-        <v>96</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -3898,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S7" s="2">
         <v>45111</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -3913,52 +3937,55 @@
         <v>0</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE7">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:34" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6955</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>2022</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="M8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -3972,48 +3999,51 @@
         <v>0</v>
       </c>
       <c r="R8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="S8" s="2">
         <v>45111</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
       <c r="V8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y8" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>4960</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>2008</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3">
         <v>276</v>
@@ -4022,88 +4052,97 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
         <v>112</v>
-      </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9" t="s">
-        <v>115</v>
       </c>
       <c r="S9" s="2">
         <v>45139</v>
       </c>
       <c r="T9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W9">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>48</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8075</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>2008</v>
       </c>
       <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
         <v>119</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>120</v>
       </c>
-      <c r="J10" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" t="s">
-        <v>123</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -4117,13 +4156,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S10" s="2">
         <v>45111</v>
       </c>
       <c r="T10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -4132,72 +4171,75 @@
         <v>0</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>889</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>2010</v>
       </c>
       <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" t="s">
+        <v>127</v>
+      </c>
+      <c r="I11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" t="s">
         <v>128</v>
       </c>
-      <c r="G11" t="s">
+      <c r="K11" t="s">
         <v>129</v>
       </c>
-      <c r="H11" t="s">
+      <c r="L11" t="s">
         <v>130</v>
       </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" t="s">
+      <c r="M11" t="s">
         <v>131</v>
       </c>
-      <c r="K11" t="s">
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
         <v>132</v>
-      </c>
-      <c r="L11" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11" t="s">
-        <v>135</v>
       </c>
       <c r="S11" s="2">
         <v>45111</v>
       </c>
       <c r="T11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -4206,73 +4248,82 @@
         <v>1</v>
       </c>
       <c r="Y11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF11" s="1"/>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>904</v>
+      </c>
+      <c r="AD11" s="1"/>
+      <c r="AE11">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4671</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E12">
         <v>1993</v>
       </c>
       <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
         <v>139</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>140</v>
       </c>
-      <c r="H12" t="s">
+      <c r="M12" t="s">
         <v>141</v>
       </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
         <v>142</v>
-      </c>
-      <c r="L12" t="s">
-        <v>143</v>
-      </c>
-      <c r="M12" t="s">
-        <v>144</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12" t="s">
-        <v>145</v>
       </c>
       <c r="S12" s="2">
         <v>45111</v>
       </c>
       <c r="T12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -4281,45 +4332,48 @@
         <v>0</v>
       </c>
       <c r="X12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10145</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E13">
         <v>2017</v>
       </c>
       <c r="F13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4334,78 +4388,81 @@
         <v>0</v>
       </c>
       <c r="R13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="S13" s="2">
         <v>45111</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U13">
         <v>0</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y13" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2355</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>2021</v>
       </c>
       <c r="I14" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="s">
         <v>156</v>
       </c>
-      <c r="J14" t="s">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
         <v>157</v>
-      </c>
-      <c r="L14" t="s">
-        <v>158</v>
-      </c>
-      <c r="M14" t="s">
-        <v>159</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14" t="s">
-        <v>160</v>
       </c>
       <c r="S14" s="2">
         <v>45111</v>
       </c>
       <c r="T14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U14">
         <v>0</v>
@@ -4414,69 +4471,72 @@
         <v>0</v>
       </c>
       <c r="X14" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Y14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>162</v>
+        <v>46</v>
+      </c>
+      <c r="AB14">
+        <v>1</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>8533</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E15">
         <v>2016</v>
       </c>
       <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
         <v>166</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="s">
         <v>167</v>
       </c>
-      <c r="K15" t="s">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
         <v>168</v>
-      </c>
-      <c r="L15" t="s">
-        <v>169</v>
-      </c>
-      <c r="M15" t="s">
-        <v>170</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15" t="s">
-        <v>171</v>
       </c>
       <c r="S15" s="2">
         <v>45111</v>
       </c>
       <c r="T15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -4485,121 +4545,133 @@
         <v>1</v>
       </c>
       <c r="Y15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF15" s="1"/>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB15">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>7155</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E16">
         <v>2021</v>
       </c>
       <c r="F16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
         <v>175</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M16" t="s">
-        <v>177</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16" t="s">
-        <v>178</v>
       </c>
       <c r="S16" s="2">
         <v>45111</v>
       </c>
       <c r="T16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y16" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6983</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E17">
         <v>2020</v>
       </c>
       <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
         <v>182</v>
       </c>
-      <c r="G17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="L17" t="s">
         <v>183</v>
       </c>
-      <c r="I17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="M17" t="s">
         <v>184</v>
       </c>
-      <c r="K17" t="s">
-        <v>185</v>
-      </c>
-      <c r="L17" t="s">
-        <v>186</v>
-      </c>
-      <c r="M17" t="s">
-        <v>187</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -4613,13 +4685,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S17" s="2">
         <v>45111</v>
       </c>
       <c r="T17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4628,72 +4700,75 @@
         <v>0</v>
       </c>
       <c r="X17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y17" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>7624</v>
       </c>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>2015</v>
       </c>
       <c r="F18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H18" t="s">
+        <v>188</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
         <v>191</v>
       </c>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
         <v>192</v>
       </c>
-      <c r="K18" t="s">
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
         <v>193</v>
-      </c>
-      <c r="L18" t="s">
-        <v>194</v>
-      </c>
-      <c r="M18" t="s">
-        <v>195</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18" t="s">
-        <v>196</v>
       </c>
       <c r="S18" s="2">
         <v>45111</v>
       </c>
       <c r="T18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -4702,51 +4777,51 @@
         <v>1</v>
       </c>
       <c r="Y18" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>197</v>
+        <v>46</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB18">
+        <v>1</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>911</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7596</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E19">
         <v>2019</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4761,13 +4836,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="S19" s="2">
         <v>45111</v>
       </c>
       <c r="T19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -4776,75 +4851,81 @@
         <v>1</v>
       </c>
       <c r="Y19" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB19">
+        <v>1</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG19">
-        <v>1</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>5750</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C20" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E20">
         <v>2005</v>
       </c>
       <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s">
+        <v>208</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
         <v>209</v>
-      </c>
-      <c r="G20" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" t="s">
-        <v>210</v>
-      </c>
-      <c r="I20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" t="s">
-        <v>212</v>
-      </c>
-      <c r="M20" t="s">
-        <v>213</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>214</v>
       </c>
       <c r="S20" s="2">
         <v>45111</v>
       </c>
       <c r="T20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -4853,52 +4934,55 @@
         <v>0</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="Y20" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7198</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E21">
         <v>2013</v>
       </c>
       <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>217</v>
+      </c>
+      <c r="K21" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" t="s">
         <v>219</v>
       </c>
-      <c r="G21" t="s">
+      <c r="M21" t="s">
         <v>220</v>
       </c>
-      <c r="H21" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" t="s">
-        <v>222</v>
-      </c>
-      <c r="K21" t="s">
-        <v>223</v>
-      </c>
-      <c r="L21" t="s">
-        <v>224</v>
-      </c>
-      <c r="M21" t="s">
-        <v>225</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -4912,90 +4996,93 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="S21" s="2">
         <v>45111</v>
       </c>
       <c r="T21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y21" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>7063</v>
       </c>
       <c r="B22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E22">
         <v>2022</v>
       </c>
       <c r="F22" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s">
+        <v>228</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
         <v>229</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" t="s">
-        <v>230</v>
-      </c>
-      <c r="K22" t="s">
-        <v>231</v>
-      </c>
-      <c r="L22" t="s">
-        <v>232</v>
-      </c>
-      <c r="M22" t="s">
-        <v>233</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22" t="s">
-        <v>234</v>
       </c>
       <c r="S22" s="2">
         <v>45111</v>
       </c>
       <c r="T22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U22">
         <v>0</v>
@@ -5004,30 +5091,33 @@
         <v>0</v>
       </c>
       <c r="X22" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4447</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C23" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E23">
         <v>2022</v>
       </c>
       <c r="F23" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G23">
         <v>5</v>
@@ -5036,16 +5126,16 @@
         <v>90</v>
       </c>
       <c r="I23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -5060,241 +5150,250 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="S23" s="2">
         <v>45111</v>
       </c>
       <c r="T23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U23">
         <v>0</v>
       </c>
       <c r="V23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Y23" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE23">
+        <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8821</v>
       </c>
       <c r="B24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E24">
         <v>2007</v>
       </c>
       <c r="F24" t="s">
+        <v>243</v>
+      </c>
+      <c r="G24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" t="s">
+        <v>244</v>
+      </c>
+      <c r="I24" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s">
+        <v>245</v>
+      </c>
+      <c r="K24" t="s">
+        <v>246</v>
+      </c>
+      <c r="L24" t="s">
+        <v>247</v>
+      </c>
+      <c r="M24" t="s">
         <v>248</v>
       </c>
-      <c r="G24" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
         <v>249</v>
-      </c>
-      <c r="I24" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" t="s">
-        <v>250</v>
-      </c>
-      <c r="K24" t="s">
-        <v>251</v>
-      </c>
-      <c r="L24" t="s">
-        <v>252</v>
-      </c>
-      <c r="M24" t="s">
-        <v>253</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24" t="s">
-        <v>254</v>
       </c>
       <c r="S24" s="2">
         <v>45111</v>
       </c>
       <c r="T24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y24" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8650</v>
       </c>
       <c r="B25" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C25" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D25" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E25">
         <v>2017</v>
       </c>
       <c r="F25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s">
+        <v>256</v>
+      </c>
+      <c r="K25" t="s">
+        <v>257</v>
+      </c>
+      <c r="L25" t="s">
+        <v>258</v>
+      </c>
+      <c r="M25" t="s">
+        <v>259</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
         <v>260</v>
-      </c>
-      <c r="G25" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" t="s">
-        <v>183</v>
-      </c>
-      <c r="I25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J25" t="s">
-        <v>261</v>
-      </c>
-      <c r="K25" t="s">
-        <v>262</v>
-      </c>
-      <c r="L25" t="s">
-        <v>263</v>
-      </c>
-      <c r="M25" t="s">
-        <v>264</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25" t="s">
-        <v>265</v>
       </c>
       <c r="S25" s="2">
         <v>45111</v>
       </c>
       <c r="T25" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>44</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>45</v>
       </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="Y25" t="s">
         <v>46</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>48</v>
+      <c r="AE25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1202</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D26" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E26">
         <v>2022</v>
       </c>
       <c r="F26" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s">
+        <v>266</v>
+      </c>
+      <c r="L26" t="s">
+        <v>267</v>
+      </c>
+      <c r="M26" t="s">
+        <v>268</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26" t="s">
         <v>269</v>
-      </c>
-      <c r="G26" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" t="s">
-        <v>270</v>
-      </c>
-      <c r="I26" t="s">
-        <v>39</v>
-      </c>
-      <c r="J26" t="s">
-        <v>271</v>
-      </c>
-      <c r="L26" t="s">
-        <v>272</v>
-      </c>
-      <c r="M26" t="s">
-        <v>273</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26" t="s">
-        <v>274</v>
       </c>
       <c r="S26" s="2">
         <v>45111</v>
       </c>
       <c r="T26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -5303,48 +5402,51 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9082</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C27" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="E27">
         <v>2020</v>
       </c>
       <c r="F27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G27">
         <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J27" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K27" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -5359,13 +5461,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="S27" s="2">
         <v>45111</v>
       </c>
       <c r="T27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -5374,104 +5476,110 @@
         <v>0</v>
       </c>
       <c r="X27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y27" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>6440</v>
       </c>
       <c r="B28" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D28" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E28">
         <v>2023</v>
       </c>
       <c r="F28" t="s">
+        <v>283</v>
+      </c>
+      <c r="H28" t="s">
+        <v>284</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J28" t="s">
+        <v>285</v>
+      </c>
+      <c r="K28" t="s">
+        <v>286</v>
+      </c>
+      <c r="L28" t="s">
+        <v>287</v>
+      </c>
+      <c r="M28" t="s">
         <v>288</v>
       </c>
-      <c r="H28" t="s">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" t="s">
         <v>289</v>
-      </c>
-      <c r="I28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" t="s">
-        <v>290</v>
-      </c>
-      <c r="K28" t="s">
-        <v>291</v>
-      </c>
-      <c r="L28" t="s">
-        <v>292</v>
-      </c>
-      <c r="M28" t="s">
-        <v>293</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>1</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28" t="s">
-        <v>294</v>
       </c>
       <c r="S28" s="2">
         <v>45111</v>
       </c>
       <c r="T28" t="s">
+        <v>43</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28" t="s">
+        <v>44</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28" t="s">
         <v>45</v>
       </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="Y28" t="s">
         <v>46</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>48</v>
+      <c r="AE28">
+        <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6771</v>
       </c>
       <c r="B29" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C29" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D29" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E29">
         <v>2012</v>
       </c>
       <c r="F29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -5480,13 +5588,13 @@
         <v>5</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="M29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -5501,48 +5609,51 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="S29" s="2">
         <v>45111</v>
       </c>
       <c r="T29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U29">
         <v>0</v>
       </c>
       <c r="V29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="Y29" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>6864</v>
       </c>
       <c r="B30" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C30" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E30">
         <v>2016</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -5551,13 +5662,13 @@
         <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L30" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M30" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -5572,60 +5683,60 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S30" s="2">
         <v>45111</v>
       </c>
       <c r="T30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U30">
         <v>0</v>
       </c>
       <c r="V30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W30">
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD30">
-        <v>1</v>
-      </c>
-      <c r="AE30" t="s">
-        <v>311</v>
+        <v>46</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>901</v>
+      </c>
+      <c r="AB30">
+        <v>1</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>908</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
       </c>
       <c r="AF30" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6439</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C31" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D31" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E31">
         <v>2012</v>
       </c>
       <c r="F31" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -5634,19 +5745,19 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J31" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K31" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="L31" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5661,66 +5772,69 @@
         <v>0</v>
       </c>
       <c r="R31" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="S31" s="2">
         <v>45111</v>
       </c>
       <c r="T31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U31">
         <v>0</v>
       </c>
       <c r="V31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Y31" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3753</v>
       </c>
       <c r="B32" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C32" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D32" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E32">
         <v>2004</v>
       </c>
       <c r="F32" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J32" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -5735,90 +5849,93 @@
         <v>0</v>
       </c>
       <c r="R32" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="S32" s="2">
         <v>45111</v>
       </c>
       <c r="T32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U32">
         <v>0</v>
       </c>
       <c r="V32" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Y32" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8540</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C33" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="D33" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E33">
         <v>2023</v>
       </c>
       <c r="F33" t="s">
+        <v>329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" t="s">
+        <v>330</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s">
+        <v>331</v>
+      </c>
+      <c r="K33" t="s">
+        <v>332</v>
+      </c>
+      <c r="L33" t="s">
+        <v>333</v>
+      </c>
+      <c r="M33" t="s">
+        <v>334</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" t="s">
         <v>335</v>
-      </c>
-      <c r="G33" t="s">
-        <v>140</v>
-      </c>
-      <c r="H33" t="s">
-        <v>336</v>
-      </c>
-      <c r="I33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J33" t="s">
-        <v>337</v>
-      </c>
-      <c r="K33" t="s">
-        <v>338</v>
-      </c>
-      <c r="L33" t="s">
-        <v>339</v>
-      </c>
-      <c r="M33" t="s">
-        <v>340</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33" t="s">
-        <v>341</v>
       </c>
       <c r="S33" s="2">
         <v>45111</v>
       </c>
       <c r="T33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -5827,51 +5944,54 @@
         <v>0</v>
       </c>
       <c r="X33" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Y33" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9032</v>
       </c>
       <c r="B34" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D34" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="E34">
         <v>2020</v>
       </c>
       <c r="F34" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G34" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J34" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K34" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -5886,13 +6006,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="S34" s="2">
         <v>45111</v>
       </c>
       <c r="T34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -5901,45 +6021,48 @@
         <v>0</v>
       </c>
       <c r="X34" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Y34" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2593</v>
       </c>
       <c r="B35" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D35" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E35">
         <v>2019</v>
       </c>
       <c r="F35" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H35" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J35" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5954,90 +6077,93 @@
         <v>0</v>
       </c>
       <c r="R35" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="S35" s="2">
         <v>45111</v>
       </c>
       <c r="T35" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U35">
         <v>0</v>
       </c>
       <c r="V35" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Y35" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>9668</v>
       </c>
       <c r="B36" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C36" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D36" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="E36">
         <v>2000</v>
       </c>
       <c r="F36" t="s">
+        <v>359</v>
+      </c>
+      <c r="G36" t="s">
+        <v>61</v>
+      </c>
+      <c r="H36" t="s">
+        <v>360</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s">
+        <v>361</v>
+      </c>
+      <c r="K36" t="s">
+        <v>362</v>
+      </c>
+      <c r="L36" t="s">
+        <v>363</v>
+      </c>
+      <c r="M36" t="s">
+        <v>364</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36" t="s">
         <v>365</v>
-      </c>
-      <c r="G36" t="s">
-        <v>63</v>
-      </c>
-      <c r="H36" t="s">
-        <v>366</v>
-      </c>
-      <c r="I36" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" t="s">
-        <v>367</v>
-      </c>
-      <c r="K36" t="s">
-        <v>368</v>
-      </c>
-      <c r="L36" t="s">
-        <v>369</v>
-      </c>
-      <c r="M36" t="s">
-        <v>370</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36" t="s">
-        <v>371</v>
       </c>
       <c r="S36" s="2">
         <v>45111</v>
       </c>
       <c r="T36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -6046,73 +6172,82 @@
         <v>1</v>
       </c>
       <c r="Y36" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF36" s="1"/>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB36">
+        <v>1</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD36" s="1"/>
+      <c r="AE36">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7941</v>
       </c>
       <c r="B37" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="E37">
         <v>2021</v>
       </c>
       <c r="F37" t="s">
+        <v>369</v>
+      </c>
+      <c r="H37" t="s">
+        <v>370</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J37" t="s">
+        <v>371</v>
+      </c>
+      <c r="K37" t="s">
+        <v>372</v>
+      </c>
+      <c r="L37" t="s">
+        <v>373</v>
+      </c>
+      <c r="M37" t="s">
+        <v>374</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
         <v>375</v>
-      </c>
-      <c r="H37" t="s">
-        <v>376</v>
-      </c>
-      <c r="I37" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" t="s">
-        <v>377</v>
-      </c>
-      <c r="K37" t="s">
-        <v>378</v>
-      </c>
-      <c r="L37" t="s">
-        <v>379</v>
-      </c>
-      <c r="M37" t="s">
-        <v>380</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37" t="s">
-        <v>381</v>
       </c>
       <c r="S37" s="2">
         <v>45111</v>
       </c>
       <c r="T37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U37">
         <v>0</v>
@@ -6121,48 +6256,54 @@
         <v>1</v>
       </c>
       <c r="Y37" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB37">
+        <v>1</v>
+      </c>
+      <c r="AC37" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG37">
-        <v>1</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>9417</v>
       </c>
       <c r="B38" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C38" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D38" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="E38">
         <v>2006</v>
       </c>
       <c r="I38" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J38" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="K38" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L38" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M38" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -6177,57 +6318,60 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="S38" s="2">
         <v>45139</v>
       </c>
       <c r="T38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Y38" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7073</v>
       </c>
       <c r="B39" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C39" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D39" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E39">
         <v>2013</v>
       </c>
       <c r="I39" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J39" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="L39" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M39" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -6242,13 +6386,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="S39" s="2">
         <v>45111</v>
       </c>
       <c r="T39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6257,48 +6401,51 @@
         <v>0</v>
       </c>
       <c r="X39" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Y39" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>9211</v>
       </c>
       <c r="B40" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C40" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D40" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="E40">
         <v>2002</v>
       </c>
       <c r="F40" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G40" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="H40" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J40" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L40" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M40" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -6313,13 +6460,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="S40" s="2">
         <v>45111</v>
       </c>
       <c r="T40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -6328,39 +6475,42 @@
         <v>0</v>
       </c>
       <c r="X40" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="Y40" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE40">
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8241</v>
       </c>
       <c r="B41" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D41" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E41">
         <v>2018</v>
       </c>
       <c r="I41" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J41" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M41" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -6375,13 +6525,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="S41" s="2">
         <v>45111</v>
       </c>
       <c r="T41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -6390,51 +6540,54 @@
         <v>0</v>
       </c>
       <c r="X41" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Y41" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7945</v>
       </c>
       <c r="B42" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="C42" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D42" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E42">
         <v>2020</v>
       </c>
       <c r="F42" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H42" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J42" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -6449,13 +6602,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="S42" s="2">
         <v>45111</v>
       </c>
       <c r="T42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -6464,48 +6617,51 @@
         <v>0</v>
       </c>
       <c r="X42" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y42" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE42">
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7452</v>
       </c>
       <c r="B43" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D43" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E43">
         <v>2017</v>
       </c>
       <c r="F43" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J43" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -6520,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="S43" s="2">
         <v>45111</v>
       </c>
       <c r="T43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -6535,39 +6691,42 @@
         <v>0</v>
       </c>
       <c r="X43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Y43" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1048</v>
       </c>
       <c r="B44" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C44" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="D44" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E44">
         <v>2011</v>
       </c>
       <c r="I44" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J44" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M44" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="N44">
         <v>0</v>
@@ -6585,48 +6744,51 @@
         <v>45111</v>
       </c>
       <c r="T44" t="s">
+        <v>43</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
         <v>45</v>
       </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44" t="s">
-        <v>47</v>
-      </c>
       <c r="Y44" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>5001</v>
       </c>
       <c r="B45" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C45" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="D45" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E45">
         <v>2007</v>
       </c>
       <c r="I45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L45" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M45" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -6641,13 +6803,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="S45" s="2">
         <v>45111</v>
       </c>
       <c r="T45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -6656,63 +6818,63 @@
         <v>1</v>
       </c>
       <c r="Y45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD45">
-        <v>1</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>442</v>
+        <v>46</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB45">
+        <v>1</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG45">
-        <v>1</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10374</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C46" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D46" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="E46">
         <v>2015</v>
       </c>
       <c r="F46" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H46" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="I46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J46" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K46" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L46" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M46" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -6727,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="S46" s="2">
         <v>45111</v>
       </c>
       <c r="T46" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -6742,48 +6904,51 @@
         <v>0</v>
       </c>
       <c r="X46" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="Y46" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7046</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C47" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D47" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E47">
         <v>2016</v>
       </c>
       <c r="F47" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J47" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="L47" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M47" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -6798,13 +6963,13 @@
         <v>0</v>
       </c>
       <c r="R47" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="S47" s="2">
         <v>45111</v>
       </c>
       <c r="T47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -6813,48 +6978,51 @@
         <v>0</v>
       </c>
       <c r="X47" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Y47" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE47">
+        <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>4250</v>
       </c>
       <c r="B48" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C48" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D48" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E48">
         <v>2002</v>
       </c>
       <c r="F48" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H48" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J48" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L48" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M48" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -6872,57 +7040,60 @@
         <v>45111</v>
       </c>
       <c r="T48" t="s">
+        <v>43</v>
+      </c>
+      <c r="U48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
         <v>45</v>
       </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48" t="s">
-        <v>47</v>
-      </c>
       <c r="Y48" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>10629</v>
       </c>
       <c r="B49" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C49" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D49" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E49">
         <v>2013</v>
       </c>
       <c r="F49" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J49" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K49" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="L49" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="M49" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -6937,48 +7108,51 @@
         <v>0</v>
       </c>
       <c r="R49" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="S49" s="2">
         <v>45111</v>
       </c>
       <c r="T49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W49">
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y49" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE49">
+        <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>10303</v>
       </c>
       <c r="B50" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="C50" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D50" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="E50">
         <v>2014</v>
       </c>
       <c r="F50" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -6987,16 +7161,16 @@
         <v>4</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J50" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="L50" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="M50" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -7011,13 +7185,13 @@
         <v>0</v>
       </c>
       <c r="R50" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="S50" s="2">
         <v>45111</v>
       </c>
       <c r="T50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -7026,51 +7200,54 @@
         <v>0</v>
       </c>
       <c r="X50" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="Y50" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>9190</v>
       </c>
       <c r="B51" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D51" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="E51">
         <v>2016</v>
       </c>
       <c r="F51" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H51" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J51" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K51" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="L51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="M51" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -7085,13 +7262,13 @@
         <v>0</v>
       </c>
       <c r="R51" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="S51" s="2">
         <v>45113</v>
       </c>
       <c r="T51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -7100,36 +7277,39 @@
         <v>0</v>
       </c>
       <c r="X51" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="Y51" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7910</v>
       </c>
       <c r="B52" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="C52" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E52">
         <v>2010</v>
       </c>
       <c r="I52" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J52" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M52" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -7144,64 +7324,73 @@
         <v>0</v>
       </c>
       <c r="R52" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="S52" s="2">
         <v>45113</v>
       </c>
       <c r="T52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U52">
         <v>0</v>
       </c>
       <c r="V52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W52">
         <v>1</v>
       </c>
       <c r="Y52" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF52" s="1"/>
-      <c r="AG52">
-        <v>1</v>
-      </c>
-      <c r="AH52">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB52">
+        <v>1</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD52" s="1"/>
+      <c r="AE52">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>6545</v>
       </c>
       <c r="B53" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D53" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="E53">
         <v>2017</v>
       </c>
       <c r="F53" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="I53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J53" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="L53" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="M53" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -7219,81 +7408,84 @@
         <v>45113</v>
       </c>
       <c r="T53" t="s">
+        <v>43</v>
+      </c>
+      <c r="U53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53" t="s">
         <v>45</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="W53">
-        <v>0</v>
-      </c>
-      <c r="X53" t="s">
-        <v>47</v>
-      </c>
       <c r="Y53" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE53">
+        <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>10187</v>
       </c>
       <c r="B54" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="C54" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="E54">
         <v>1997</v>
       </c>
       <c r="F54" t="s">
+        <v>505</v>
+      </c>
+      <c r="G54" t="s">
+        <v>99</v>
+      </c>
+      <c r="H54" t="s">
+        <v>506</v>
+      </c>
+      <c r="I54" t="s">
+        <v>37</v>
+      </c>
+      <c r="J54" t="s">
+        <v>507</v>
+      </c>
+      <c r="K54" t="s">
+        <v>508</v>
+      </c>
+      <c r="L54" t="s">
+        <v>509</v>
+      </c>
+      <c r="M54" t="s">
+        <v>510</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54" t="s">
         <v>511</v>
-      </c>
-      <c r="G54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H54" t="s">
-        <v>512</v>
-      </c>
-      <c r="I54" t="s">
-        <v>39</v>
-      </c>
-      <c r="J54" t="s">
-        <v>513</v>
-      </c>
-      <c r="K54" t="s">
-        <v>514</v>
-      </c>
-      <c r="L54" t="s">
-        <v>515</v>
-      </c>
-      <c r="M54" t="s">
-        <v>516</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54" t="s">
-        <v>517</v>
       </c>
       <c r="S54" s="2">
         <v>45113</v>
       </c>
       <c r="T54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -7302,57 +7494,63 @@
         <v>0</v>
       </c>
       <c r="X54" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="Y54" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>519</v>
+        <v>46</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB54">
+        <v>1</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>9600</v>
       </c>
       <c r="B55" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="C55" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="D55" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E55">
         <v>2006</v>
       </c>
       <c r="F55" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J55" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="K55" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="L55" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="M55" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -7367,13 +7565,13 @@
         <v>0</v>
       </c>
       <c r="R55" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S55" s="2">
         <v>45113</v>
       </c>
       <c r="T55" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -7382,34 +7580,43 @@
         <v>1</v>
       </c>
       <c r="Y55" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF55" s="1"/>
-      <c r="AG55">
-        <v>1</v>
-      </c>
-      <c r="AH55">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB55">
+        <v>1</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD55" s="1"/>
+      <c r="AE55">
+        <v>1</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6875</v>
       </c>
       <c r="B56" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C56" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="D56" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="E56">
         <v>2022</v>
       </c>
       <c r="F56" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -7418,16 +7625,16 @@
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J56" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="L56" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="M56" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -7442,146 +7649,155 @@
         <v>0</v>
       </c>
       <c r="R56" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="S56" s="2">
         <v>45145</v>
       </c>
       <c r="T56" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
       <c r="V56" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W56">
         <v>0</v>
       </c>
       <c r="X56" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y56" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3724</v>
       </c>
       <c r="B57" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C57" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="D57" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="E57">
         <v>2015</v>
       </c>
       <c r="F57" t="s">
+        <v>535</v>
+      </c>
+      <c r="G57" t="s">
+        <v>536</v>
+      </c>
+      <c r="H57" t="s">
+        <v>537</v>
+      </c>
+      <c r="I57" t="s">
+        <v>37</v>
+      </c>
+      <c r="J57" t="s">
+        <v>538</v>
+      </c>
+      <c r="L57" t="s">
+        <v>539</v>
+      </c>
+      <c r="M57" t="s">
+        <v>540</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57" t="s">
         <v>541</v>
-      </c>
-      <c r="G57" t="s">
-        <v>542</v>
-      </c>
-      <c r="H57" t="s">
-        <v>543</v>
-      </c>
-      <c r="I57" t="s">
-        <v>39</v>
-      </c>
-      <c r="J57" t="s">
-        <v>544</v>
-      </c>
-      <c r="L57" t="s">
-        <v>545</v>
-      </c>
-      <c r="M57" t="s">
-        <v>546</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57" t="s">
-        <v>547</v>
       </c>
       <c r="S57" s="2">
         <v>45113</v>
       </c>
       <c r="T57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U57">
         <v>0</v>
       </c>
       <c r="V57" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W57">
         <v>1</v>
       </c>
       <c r="Y57" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG57">
-        <v>1</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1013</v>
       </c>
       <c r="B58" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C58" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="D58" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E58">
         <v>2008</v>
       </c>
       <c r="F58" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G58" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="H58" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="I58" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J58" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="L58" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="M58" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -7596,13 +7812,13 @@
         <v>0</v>
       </c>
       <c r="R58" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="S58" s="2">
         <v>45113</v>
       </c>
       <c r="T58" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U58">
         <v>0</v>
@@ -7611,42 +7827,45 @@
         <v>0</v>
       </c>
       <c r="X58" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y58" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE58">
+        <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>6380</v>
       </c>
       <c r="B59" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C59" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="D59" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E59">
         <v>2009</v>
       </c>
       <c r="F59" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="I59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J59" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="L59" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M59" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -7664,7 +7883,7 @@
         <v>45113</v>
       </c>
       <c r="T59" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U59">
         <v>0</v>
@@ -7673,48 +7892,51 @@
         <v>0</v>
       </c>
       <c r="X59" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="Y59" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE59">
+        <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1091</v>
       </c>
       <c r="B60" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="C60" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D60" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E60">
         <v>2016</v>
       </c>
       <c r="F60" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="G60" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="H60" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J60" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="L60" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M60" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -7729,54 +7951,57 @@
         <v>0</v>
       </c>
       <c r="R60" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="S60" s="2">
         <v>45113</v>
       </c>
       <c r="T60" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U60">
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W60">
         <v>0</v>
       </c>
       <c r="X60" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="Y60" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>7642</v>
       </c>
       <c r="B61" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="C61" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="D61" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E61">
         <v>2009</v>
       </c>
       <c r="I61" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J61" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="M61" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -7791,13 +8016,13 @@
         <v>0</v>
       </c>
       <c r="R61" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="S61" s="2">
         <v>45113</v>
       </c>
       <c r="T61" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -7806,42 +8031,45 @@
         <v>0</v>
       </c>
       <c r="X61" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="Y61" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE61">
+        <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>8560</v>
       </c>
       <c r="B62" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="C62" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D62" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E62">
         <v>2023</v>
       </c>
       <c r="I62" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J62" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="K62" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="L62" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="M62" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -7856,69 +8084,72 @@
         <v>0</v>
       </c>
       <c r="R62" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="S62" s="2">
         <v>45146</v>
       </c>
       <c r="T62" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W62">
         <v>0</v>
       </c>
       <c r="X62" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="Y62" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>872</v>
       </c>
       <c r="B63" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="C63" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D63" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="E63">
         <v>2009</v>
       </c>
       <c r="F63" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="G63">
         <v>4</v>
       </c>
       <c r="H63" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J63" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="K63" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="L63" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="M63" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -7933,63 +8164,66 @@
         <v>0</v>
       </c>
       <c r="R63" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="S63" s="2">
         <v>45113</v>
       </c>
       <c r="T63" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U63">
         <v>0</v>
       </c>
       <c r="V63" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W63">
         <v>0</v>
       </c>
       <c r="X63" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y63" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>10029</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E64" s="5">
         <v>2022</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="N64" s="5">
         <v>1</v>
@@ -8004,13 +8238,13 @@
         <v>0</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="S64" s="6">
         <v>45113</v>
       </c>
       <c r="T64" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U64" s="5">
         <v>0</v>
@@ -8019,52 +8253,62 @@
         <v>1</v>
       </c>
       <c r="Y64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF64" s="1"/>
-      <c r="AG64" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH64" s="5">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>902</v>
+      </c>
+      <c r="AA64"/>
+      <c r="AB64">
+        <v>1</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD64" s="1"/>
+      <c r="AE64">
+        <v>1</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="65" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>1049</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E65" s="5">
         <v>2008</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G65" s="5">
         <v>3</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="N65" s="5">
         <v>1</v>
@@ -8079,70 +8323,80 @@
         <v>0</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="S65" s="6">
         <v>45113</v>
       </c>
       <c r="T65" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U65" s="5">
         <v>0</v>
       </c>
       <c r="V65" s="5" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="W65" s="5">
         <v>1</v>
       </c>
       <c r="Y65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF65" s="1"/>
-      <c r="AG65" s="5">
-        <v>1</v>
-      </c>
-      <c r="AH65" s="5">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>902</v>
+      </c>
+      <c r="AA65"/>
+      <c r="AB65">
+        <v>1</v>
+      </c>
+      <c r="AC65" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD65" s="1"/>
+      <c r="AE65">
+        <v>1</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>585</v>
       </c>
       <c r="B66" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="C66" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="D66" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E66">
         <v>2021</v>
       </c>
       <c r="F66" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="G66" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H66" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J66" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L66" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="M66" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -8157,13 +8411,13 @@
         <v>0</v>
       </c>
       <c r="R66" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="S66" s="2">
         <v>45113</v>
       </c>
       <c r="T66" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -8172,36 +8426,39 @@
         <v>0</v>
       </c>
       <c r="X66" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="Y66" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>8126</v>
       </c>
       <c r="B67" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="C67" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="D67" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E67">
         <v>2019</v>
       </c>
       <c r="I67" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J67" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="M67" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -8216,13 +8473,13 @@
         <v>0</v>
       </c>
       <c r="R67" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="S67" s="2">
         <v>45113</v>
       </c>
       <c r="T67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -8231,36 +8488,39 @@
         <v>0</v>
       </c>
       <c r="X67" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="Y67" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>6446</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="E68" s="5">
         <v>2020</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="N68" s="5">
         <v>1</v>
@@ -8275,66 +8535,69 @@
         <v>0</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="S68" s="6">
         <v>45113</v>
       </c>
       <c r="T68" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U68" s="5">
         <v>0</v>
       </c>
       <c r="V68" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W68" s="5">
         <v>0</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="Y68" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE68">
+        <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>7332</v>
       </c>
       <c r="B69" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C69" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D69" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E69">
         <v>2019</v>
       </c>
       <c r="F69" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J69" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="L69" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="M69" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -8349,13 +8612,13 @@
         <v>0</v>
       </c>
       <c r="R69" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="S69" s="2">
         <v>45113</v>
       </c>
       <c r="T69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -8364,30 +8627,33 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y69" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE69">
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>8495</v>
       </c>
       <c r="B70" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C70" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D70" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E70">
         <v>2021</v>
       </c>
       <c r="F70" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -8396,16 +8662,16 @@
         <v>7</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J70" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="L70" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="M70" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -8420,57 +8686,60 @@
         <v>0</v>
       </c>
       <c r="R70" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="S70" s="2">
         <v>45113</v>
       </c>
       <c r="T70" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U70">
         <v>0</v>
       </c>
       <c r="V70" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W70">
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Y70" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>8113</v>
       </c>
       <c r="B71" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C71" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D71" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E71">
         <v>2018</v>
       </c>
       <c r="I71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J71" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="L71" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="M71" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -8485,13 +8754,13 @@
         <v>0</v>
       </c>
       <c r="R71" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="S71" s="2">
         <v>45113</v>
       </c>
       <c r="T71" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U71">
         <v>1</v>
@@ -8500,48 +8769,51 @@
         <v>0</v>
       </c>
       <c r="X71" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="Y71" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>948</v>
       </c>
       <c r="B72" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C72" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="D72" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E72">
         <v>2009</v>
       </c>
       <c r="F72" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G72" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J72" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="L72" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="M72" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -8556,13 +8828,13 @@
         <v>0</v>
       </c>
       <c r="R72" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="S72" s="2">
         <v>45113</v>
       </c>
       <c r="T72" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U72">
         <v>0</v>
@@ -8571,51 +8843,54 @@
         <v>0</v>
       </c>
       <c r="X72" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y72" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>8480</v>
       </c>
       <c r="B73" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="C73" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="D73" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E73">
         <v>2010</v>
       </c>
       <c r="F73" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G73" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H73" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J73" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="K73" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="L73" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="M73" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -8630,57 +8905,60 @@
         <v>0</v>
       </c>
       <c r="R73" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="S73" s="2">
         <v>45113</v>
       </c>
       <c r="T73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U73">
         <v>0</v>
       </c>
       <c r="V73" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W73">
         <v>0</v>
       </c>
       <c r="X73" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="Y73" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>4590</v>
       </c>
       <c r="B74" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="C74" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="D74" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E74">
         <v>2014</v>
       </c>
       <c r="I74" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J74" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="L74" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="M74" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -8695,13 +8973,13 @@
         <v>0</v>
       </c>
       <c r="R74" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="S74" s="2">
         <v>45113</v>
       </c>
       <c r="T74" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -8710,42 +8988,45 @@
         <v>0</v>
       </c>
       <c r="X74" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="Y74" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE74">
+        <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8629</v>
       </c>
       <c r="B75" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="C75" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="D75" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="E75">
         <v>2022</v>
       </c>
       <c r="I75" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J75" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="K75" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="L75" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="M75" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -8760,13 +9041,13 @@
         <v>0</v>
       </c>
       <c r="R75" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="S75" s="2">
         <v>45113</v>
       </c>
       <c r="T75" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U75">
         <v>0</v>
@@ -8775,51 +9056,54 @@
         <v>0</v>
       </c>
       <c r="X75" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="Y75" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE75">
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:34" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:32" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>8032</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="E76" s="5">
         <v>2004</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="K76" s="5" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="L76" s="5" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="M76" s="5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="N76" s="5">
         <v>1</v>
@@ -8834,13 +9118,13 @@
         <v>0</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="S76" s="6">
         <v>45113</v>
       </c>
       <c r="T76" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U76" s="5">
         <v>0</v>
@@ -8849,30 +9133,33 @@
         <v>0</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="Y76" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10241</v>
       </c>
       <c r="B77" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="C77" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="D77" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="E77">
         <v>2012</v>
       </c>
       <c r="F77" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -8881,16 +9168,16 @@
         <v>11</v>
       </c>
       <c r="I77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J77" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="L77" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M77" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -8905,66 +9192,69 @@
         <v>0</v>
       </c>
       <c r="R77" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="S77" s="2">
         <v>45113</v>
       </c>
       <c r="T77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U77">
         <v>0</v>
       </c>
       <c r="V77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W77">
         <v>0</v>
       </c>
       <c r="X77" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="Y77" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE77">
+        <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1018</v>
       </c>
       <c r="B78" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="C78" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D78" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="E78">
         <v>2006</v>
       </c>
       <c r="F78" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G78">
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="I78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J78" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="L78" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="M78" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -8979,61 +9269,70 @@
         <v>0</v>
       </c>
       <c r="R78" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="S78" s="2">
         <v>45113</v>
       </c>
       <c r="T78" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U78">
         <v>0</v>
       </c>
       <c r="V78" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W78">
         <v>1</v>
       </c>
       <c r="Y78" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF78" s="1"/>
-      <c r="AG78">
-        <v>1</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD78" s="1"/>
+      <c r="AE78">
+        <v>1</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>147</v>
       </c>
       <c r="B79" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="C79" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="D79" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E79">
         <v>2018</v>
       </c>
       <c r="I79" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J79" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="L79" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="M79" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -9048,13 +9347,13 @@
         <v>0</v>
       </c>
       <c r="R79" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="S79" s="2">
         <v>45113</v>
       </c>
       <c r="T79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -9063,34 +9362,43 @@
         <v>1</v>
       </c>
       <c r="Y79" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF79" s="1"/>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AH79">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>907</v>
+      </c>
+      <c r="AD79" s="1"/>
+      <c r="AE79">
+        <v>1</v>
+      </c>
+      <c r="AF79" t="s">
+        <v>906</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>6992</v>
       </c>
       <c r="B80" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="C80" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="D80" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E80">
         <v>2017</v>
       </c>
       <c r="F80" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -9099,19 +9407,19 @@
         <v>6</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J80" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="K80" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="L80" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="M80" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -9126,57 +9434,60 @@
         <v>0</v>
       </c>
       <c r="R80" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="S80" s="2">
         <v>45113</v>
       </c>
       <c r="T80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U80">
         <v>0</v>
       </c>
       <c r="V80" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W80">
         <v>0</v>
       </c>
       <c r="X80" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="Y80" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE80">
+        <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>134</v>
       </c>
       <c r="B81" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C81" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="D81" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="E81">
         <v>2019</v>
       </c>
       <c r="I81" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J81" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="L81" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="M81" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -9191,13 +9502,13 @@
         <v>0</v>
       </c>
       <c r="R81" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="S81" s="2">
         <v>45113</v>
       </c>
       <c r="T81" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -9206,30 +9517,33 @@
         <v>0</v>
       </c>
       <c r="X81" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Y81" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE81">
+        <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>7190</v>
       </c>
       <c r="B82" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="C82" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="D82" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="E82">
         <v>2016</v>
       </c>
       <c r="F82" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="G82">
         <v>5</v>
@@ -9238,13 +9552,13 @@
         <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J82" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="M82" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -9259,66 +9573,69 @@
         <v>0</v>
       </c>
       <c r="R82" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="S82" s="2">
         <v>45113</v>
       </c>
       <c r="T82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U82">
         <v>0</v>
       </c>
       <c r="V82" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W82">
         <v>0</v>
       </c>
       <c r="X82" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="Y82" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="C83" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="D83" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="E83">
         <v>2013</v>
       </c>
       <c r="F83" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G83">
         <v>7</v>
       </c>
       <c r="H83" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="I83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J83" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="L83" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="M83" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -9333,66 +9650,69 @@
         <v>0</v>
       </c>
       <c r="R83" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="S83" s="2">
         <v>45113</v>
       </c>
       <c r="T83" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U83">
         <v>0</v>
       </c>
       <c r="V83" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W83">
         <v>0</v>
       </c>
       <c r="X83" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Y83" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE83">
+        <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1040</v>
       </c>
       <c r="B84" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="C84" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="D84" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="E84">
         <v>2006</v>
       </c>
       <c r="F84" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G84">
         <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="I84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J84" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="L84" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="M84" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -9407,57 +9727,60 @@
         <v>0</v>
       </c>
       <c r="R84" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="S84" s="2">
         <v>45113</v>
       </c>
       <c r="T84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U84">
         <v>0</v>
       </c>
       <c r="V84" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W84">
         <v>0</v>
       </c>
       <c r="X84" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y84" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE84">
+        <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7257</v>
       </c>
       <c r="B85" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C85" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D85" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="E85">
         <v>2012</v>
       </c>
       <c r="I85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J85" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="L85" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="M85" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -9472,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="R85" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="S85" s="2">
         <v>45113</v>
       </c>
       <c r="T85" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U85">
         <v>0</v>
@@ -9487,45 +9810,48 @@
         <v>0</v>
       </c>
       <c r="X85" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="Y85" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE85">
+        <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3283</v>
       </c>
       <c r="B86" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="C86" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="D86" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="E86">
         <v>2013</v>
       </c>
       <c r="F86" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H86" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="I86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J86" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="L86" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="M86" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -9540,78 +9866,78 @@
         <v>0</v>
       </c>
       <c r="R86" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="S86" s="2">
         <v>45113</v>
       </c>
       <c r="T86" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U86">
         <v>0</v>
       </c>
       <c r="V86" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W86">
         <v>1</v>
       </c>
       <c r="Y86" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD86">
-        <v>1</v>
-      </c>
-      <c r="AE86" t="s">
-        <v>783</v>
+        <v>46</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB86">
+        <v>1</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE86">
+        <v>1</v>
       </c>
       <c r="AF86" t="s">
-        <v>548</v>
-      </c>
-      <c r="AG86">
-        <v>1</v>
-      </c>
-      <c r="AH86">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5187</v>
       </c>
       <c r="B87" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C87" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="D87" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="E87">
         <v>1987</v>
       </c>
       <c r="F87" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H87" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J87" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="L87" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="M87" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -9626,13 +9952,13 @@
         <v>0</v>
       </c>
       <c r="R87" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="S87" s="2">
         <v>45113</v>
       </c>
       <c r="T87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U87">
         <v>0</v>
@@ -9641,48 +9967,51 @@
         <v>0</v>
       </c>
       <c r="X87" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="Y87" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE87">
+        <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4269</v>
       </c>
       <c r="B88" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C88" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="D88" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="E88">
         <v>2004</v>
       </c>
       <c r="F88" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="G88">
         <v>3</v>
       </c>
       <c r="H88" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="I88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J88" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="L88" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="M88" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -9697,63 +10026,66 @@
         <v>0</v>
       </c>
       <c r="R88" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="S88" s="2">
         <v>45113</v>
       </c>
       <c r="T88" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U88">
         <v>0</v>
       </c>
       <c r="V88" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="W88">
         <v>0</v>
       </c>
       <c r="X88" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y88" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE88">
+        <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>8904</v>
       </c>
       <c r="B89" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="C89" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D89" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="E89">
         <v>2010</v>
       </c>
       <c r="F89" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="H89" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I89" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="J89" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="L89" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="M89" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -9768,13 +10100,13 @@
         <v>0</v>
       </c>
       <c r="R89" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="S89" s="2">
         <v>45113</v>
       </c>
       <c r="T89" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -9783,45 +10115,51 @@
         <v>1</v>
       </c>
       <c r="Y89" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB89">
+        <v>1</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>907</v>
+      </c>
+      <c r="AE89">
+        <v>1</v>
       </c>
       <c r="AF89" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG89">
-        <v>1</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
+        <v>905</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7195</v>
       </c>
       <c r="B90" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C90" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="D90" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E90">
         <v>2017</v>
       </c>
       <c r="I90" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J90" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="L90" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="M90" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -9839,7 +10177,7 @@
         <v>45113</v>
       </c>
       <c r="T90" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U90">
         <v>1</v>
@@ -9848,48 +10186,51 @@
         <v>0</v>
       </c>
       <c r="X90" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="Y90" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE90">
+        <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1141</v>
       </c>
       <c r="B91" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="C91" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="D91" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E91">
         <v>2008</v>
       </c>
       <c r="F91" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G91" t="s">
+        <v>35</v>
+      </c>
+      <c r="H91" t="s">
+        <v>812</v>
+      </c>
+      <c r="I91" t="s">
         <v>37</v>
       </c>
-      <c r="H91" t="s">
-        <v>820</v>
-      </c>
-      <c r="I91" t="s">
-        <v>39</v>
-      </c>
       <c r="J91" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="L91" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="M91" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -9904,60 +10245,63 @@
         <v>0</v>
       </c>
       <c r="R91" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="S91" s="2">
         <v>45113</v>
       </c>
       <c r="T91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U91">
         <v>0</v>
       </c>
       <c r="V91" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W91">
         <v>0</v>
       </c>
       <c r="X91" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="Y91" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE91">
+        <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9874</v>
       </c>
       <c r="B92" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C92" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D92" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E92">
         <v>2020</v>
       </c>
       <c r="I92" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J92" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="K92" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="L92" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="M92" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -9972,13 +10316,13 @@
         <v>0</v>
       </c>
       <c r="R92" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="S92" s="2">
         <v>45113</v>
       </c>
       <c r="T92" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -9987,51 +10331,54 @@
         <v>0</v>
       </c>
       <c r="X92" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="Y92" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE92">
+        <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="C93" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="D93" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="E93">
         <v>2016</v>
       </c>
       <c r="F93" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G93" t="s">
+        <v>35</v>
+      </c>
+      <c r="H93" t="s">
+        <v>180</v>
+      </c>
+      <c r="I93" t="s">
         <v>37</v>
       </c>
-      <c r="H93" t="s">
-        <v>183</v>
-      </c>
-      <c r="I93" t="s">
-        <v>39</v>
-      </c>
       <c r="J93" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="K93" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="L93" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="M93" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -10046,13 +10393,13 @@
         <v>0</v>
       </c>
       <c r="R93" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="S93" s="2">
         <v>45113</v>
       </c>
       <c r="T93" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U93">
         <v>0</v>
@@ -10061,42 +10408,45 @@
         <v>0</v>
       </c>
       <c r="X93" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y93" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE93">
+        <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>9158</v>
       </c>
       <c r="B94" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="C94" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="D94" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="E94">
         <v>2023</v>
       </c>
       <c r="I94" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J94" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="K94" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="L94" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="M94" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -10111,66 +10461,69 @@
         <v>0</v>
       </c>
       <c r="R94" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="S94" s="2">
         <v>45113</v>
       </c>
       <c r="T94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U94">
         <v>0</v>
       </c>
       <c r="V94" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="W94">
         <v>0</v>
       </c>
       <c r="X94" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="Y94" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE94">
+        <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7443</v>
       </c>
       <c r="B95" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="C95" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="D95" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="E95">
         <v>2021</v>
       </c>
       <c r="F95" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="H95" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J95" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="K95" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="L95" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="M95" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -10185,60 +10538,63 @@
         <v>0</v>
       </c>
       <c r="R95" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="S95" s="2">
         <v>45113</v>
       </c>
       <c r="T95" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U95">
         <v>0</v>
       </c>
       <c r="V95" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="W95">
         <v>0</v>
       </c>
       <c r="X95" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="Y95" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE95">
+        <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>6398</v>
       </c>
       <c r="B96" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="C96" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="D96" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="E96">
         <v>2014</v>
       </c>
       <c r="F96" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="I96" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J96" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="L96" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="M96" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -10253,13 +10609,13 @@
         <v>0</v>
       </c>
       <c r="R96" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="S96" s="2">
         <v>45113</v>
       </c>
       <c r="T96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U96">
         <v>0</v>
@@ -10268,40 +10624,43 @@
         <v>1</v>
       </c>
       <c r="Y96" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD96">
-        <v>1</v>
-      </c>
-      <c r="AE96" t="s">
-        <v>871</v>
-      </c>
-      <c r="AF96" s="1"/>
-      <c r="AG96">
-        <v>1</v>
-      </c>
-      <c r="AH96">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB96">
+        <v>1</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>909</v>
+      </c>
+      <c r="AD96" s="1"/>
+      <c r="AE96">
+        <v>1</v>
+      </c>
+      <c r="AF96" t="s">
+        <v>905</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>10518</v>
       </c>
       <c r="B97" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C97" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D97" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="E97">
         <v>2003</v>
       </c>
       <c r="F97" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="G97">
         <v>9</v>
@@ -10310,16 +10669,16 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J97" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="L97" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="M97" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -10334,60 +10693,63 @@
         <v>0</v>
       </c>
       <c r="R97" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="S97" s="2">
         <v>45113</v>
       </c>
       <c r="T97" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U97">
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W97">
         <v>0</v>
       </c>
       <c r="X97" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y97" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE97">
+        <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>2590</v>
       </c>
       <c r="B98" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C98" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D98" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E98">
         <v>2020</v>
       </c>
       <c r="F98" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="I98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J98" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="L98" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="M98" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -10402,13 +10764,13 @@
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="S98" s="2">
         <v>45113</v>
       </c>
       <c r="T98" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U98">
         <v>0</v>
@@ -10417,48 +10779,51 @@
         <v>0</v>
       </c>
       <c r="X98" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="Y98" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE98">
+        <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2915</v>
       </c>
       <c r="B99" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C99" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="D99" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="E99">
         <v>2000</v>
       </c>
       <c r="F99" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="G99" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H99" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J99" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="L99" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="M99" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -10473,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="R99" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="S99" s="2">
         <v>45113</v>
       </c>
       <c r="T99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U99">
         <v>0</v>
@@ -10488,39 +10853,42 @@
         <v>0</v>
       </c>
       <c r="X99" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y99" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE99">
+        <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1124</v>
       </c>
       <c r="B100" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C100" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D100" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="E100">
         <v>2010</v>
       </c>
       <c r="I100" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J100" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="L100" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="M100" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -10535,57 +10903,60 @@
         <v>0</v>
       </c>
       <c r="R100" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="S100" s="2">
         <v>45113</v>
       </c>
       <c r="T100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U100">
         <v>0</v>
       </c>
       <c r="V100" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="W100">
         <v>0</v>
       </c>
       <c r="X100" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="Y100" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE100">
+        <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>9305</v>
       </c>
       <c r="B101" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="C101" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D101" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="E101">
         <v>2015</v>
       </c>
       <c r="I101" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J101" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="L101" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="M101" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -10600,13 +10971,13 @@
         <v>0</v>
       </c>
       <c r="R101" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="S101" s="2">
         <v>45113</v>
       </c>
       <c r="T101" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -10615,10 +10986,13 @@
         <v>0</v>
       </c>
       <c r="X101" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="Y101" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="AE101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
